--- a/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ucan_utoronto_database_producti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$250</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1023">
   <si>
     <t>name</t>
   </si>
@@ -2766,24 +2766,15 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>- To explore the unprecedented potential of matter-wave interferometry        - To look at (de)coherence in increasingly complex quantum systems.                BEC 1: We are constructing a coherently guided matter-wave interferometer. Our matter-waves wi</t>
-  </si>
-  <si>
     <t>Dr. Wolf von Klitzing</t>
   </si>
   <si>
-    <t>Location of University of Trento.</t>
-  </si>
-  <si>
     <t>Location from webpage (Łojasiewicza Str. 11).</t>
   </si>
   <si>
     <t>Sr</t>
   </si>
   <si>
-    <t>NaK</t>
-  </si>
-  <si>
     <t>Location of JST.</t>
   </si>
   <si>
@@ -2793,19 +2784,315 @@
     <t>Location of Université Paris 13.</t>
   </si>
   <si>
-    <t>Webpage does not work (15.02.2018). Cannot find location.</t>
-  </si>
-  <si>
     <t>Webpage redirects to a non-working page (15.02.2018).</t>
   </si>
   <si>
     <t>Webpage doesn't work (15.02.2018).</t>
   </si>
   <si>
-    <t>Location of Institut d'Optique.</t>
-  </si>
-  <si>
     <t>Webpage doesn't work (15.02.2018). Location of Niels Bohr Institute.</t>
+  </si>
+  <si>
+    <t>See also: Adams group, Cornish group, Gardiner group, Hughes group, Hutson group, Parker group, Proukakis group.</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (15.02.2018).
+See also: Adams group, Cornish group, Gardiner group, Hughes group, Hutson group, Parker group, Proukakis group.</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>See also: Bongs group, Boyer group, Goldwin group.</t>
+  </si>
+  <si>
+    <t>Rb, K or Rb+K</t>
+  </si>
+  <si>
+    <t>Why do they hide which atoms they have so hard?</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>Webpage redirects to the Experimental Quantum Physics group at the University of Bonn (15.02.2018).</t>
+  </si>
+  <si>
+    <t>Li(molecules), CaF, YbF, He?</t>
+  </si>
+  <si>
+    <t>I think they use Li to cool other things, not sure.</t>
+  </si>
+  <si>
+    <t>Webpage redirects to School Of Chemistry And Chemical Engineering (15.02.2018).</t>
+  </si>
+  <si>
+    <t>K, Rb, Cs, Ca</t>
+  </si>
+  <si>
+    <t>They may have some other atoms, too many atoms to find them all on the webpage.</t>
+  </si>
+  <si>
+    <t>Rb, CsYb, Ca, RbCs, Sr</t>
+  </si>
+  <si>
+    <t>Only 5 google results for all atoms together.</t>
+  </si>
+  <si>
+    <t>LiK, Rb</t>
+  </si>
+  <si>
+    <t>Webpage redirects to https://physics.anu.edu.au/ (16.02.2018).</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>The first theoritician I found for which I could determine which atoms.</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (16.02.2018).</t>
+  </si>
+  <si>
+    <t>Webpage does not seem to have been updated since 2012.</t>
+  </si>
+  <si>
+    <t>See also Hannaford / CAOUS group, Sidorov group, Vale group.</t>
+  </si>
+  <si>
+    <t>Webpage redirects to https://physics.anu.edu.au/history/ampl.php</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>A rare example of a group that doesn't hide which atoms they have.</t>
+  </si>
+  <si>
+    <t>RbCs, Cs, LiK, KCs, DyK</t>
+  </si>
+  <si>
+    <t>See also Ferlaino group.
+Possibly also Cr.</t>
+  </si>
+  <si>
+    <t>Rb, Li, KRb</t>
+  </si>
+  <si>
+    <t>Webpage redirects to https://www.nuclock.eu/ .</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>K, Rb</t>
+  </si>
+  <si>
+    <t>Possibly K+Rb.</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work. Seems temporary. Try again.</t>
+  </si>
+  <si>
+    <t>Na, Rb, Li</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (16.02.2018). The new webpage seems to be https://www.sfu.ca/physics/research/groups/mcguirk-group.html .</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (16.02.2018). The new wepage seems to be https://physwww.physics.mcmaster.ca/people/faculty/O'Dell/O'Dell_DHJ_h.html .</t>
+  </si>
+  <si>
+    <t>Redirects to https://paramekanti.weebly.com/</t>
+  </si>
+  <si>
+    <t>Thanks for the UltraCold Atoms News (UCAN) webpage!</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (16.02.2018). The best I could find is http://www.queensu.ca/physics/eugene-zaremba which is not helpful at all.</t>
+  </si>
+  <si>
+    <t>Webpage does not work (15.02.2018). Location may be wildly wrong.</t>
+  </si>
+  <si>
+    <t>Rb, K</t>
+  </si>
+  <si>
+    <t>Without website.</t>
+  </si>
+  <si>
+    <t>Rb, RbK</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (15.02.2018). See also: Adams group, Cornish group, Gardiner group, Hughes group, Hutson group, Parker group, Proukakis group.</t>
+  </si>
+  <si>
+    <t>New webpage http://www.iap.tu-darmstadt.de/apq/ .</t>
+  </si>
+  <si>
+    <t>Rb?</t>
+  </si>
+  <si>
+    <t>Sr, Li, Yb, Rb, K, NaK</t>
+  </si>
+  <si>
+    <t>See also http://ultracold.sr/ (webpage of one of the labs. Cool domain).</t>
+  </si>
+  <si>
+    <t>Ions? He+?</t>
+  </si>
+  <si>
+    <t>Also Ba+ or Rb+ mixed with Rb.</t>
+  </si>
+  <si>
+    <t>Rb, Li</t>
+  </si>
+  <si>
+    <t>Webpage seem broken (16.02.2018).</t>
+  </si>
+  <si>
+    <t>LiCs</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Rb, Cs</t>
+  </si>
+  <si>
+    <t>Rb experiment moved to Widera group (Kaiserslautern University).</t>
+  </si>
+  <si>
+    <t>Rb, Er</t>
+  </si>
+  <si>
+    <t>Webpage has https problems. Then redirects to http://photon.physnet.uni-hamburg.de/en/ilp/moritz/ .</t>
+  </si>
+  <si>
+    <t>New webpage http://photon.physnet.uni-hamburg.de/ilp/sengstock/ .</t>
+  </si>
+  <si>
+    <t>Rb, KRb, Yb, Li</t>
+  </si>
+  <si>
+    <t>Cr, Dy, Rb, Er</t>
+  </si>
+  <si>
+    <t>He, Rb</t>
+  </si>
+  <si>
+    <t>See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
+  </si>
+  <si>
+    <t>Location of Institut d'Optique. Webpage was moved to http://www.uquantmat.fr/ .</t>
+  </si>
+  <si>
+    <t>Webpage for the whole institut. https://www.coldatomsbordeaux.org/ is a better website.</t>
+  </si>
+  <si>
+    <t>Rb, Sr, RbK</t>
+  </si>
+  <si>
+    <t>See also Chevy group, Cohen-Tannoudji group, Gerbier group, Glorieux group, Leduc group, Reichel group, Salomon group.</t>
+  </si>
+  <si>
+    <t>Rb, Li, Dy, Yb, Na, He, Sr</t>
+  </si>
+  <si>
+    <t>Hard to find english pages.</t>
+  </si>
+  <si>
+    <t>Rb, Na</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (17.02.2018).</t>
+  </si>
+  <si>
+    <t>New webpage http://inphyni.cnrs.fr/fr/education/ondes-et-physique-quantique/atomes-froids-af , can't find english page. See also Kaiser group, Labeyrie group.</t>
+  </si>
+  <si>
+    <t>Hard to find english pages. See also Dulieu group, Pillet group.</t>
+  </si>
+  <si>
+    <t>Go to http://www.bec.gr/ (without index.html).</t>
+  </si>
+  <si>
+    <t>Rb, Sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - To explore the unprecedented potential of matter-wave interferometry        - To look at (de)coherence in increasingly complex quantum systems.                BEC 1: We are constructing a coherently guided matter-wave interferometer. Our matter-waves wi</t>
+  </si>
+  <si>
+    <t>See also http://www.phy.cuhk.edu.hk/~djwang/ .</t>
+  </si>
+  <si>
+    <t>Na, Rb</t>
+  </si>
+  <si>
+    <t>No webpage.</t>
+  </si>
+  <si>
+    <t>Goto http://www.tifr.res.in/~filab/ (without index.html).</t>
+  </si>
+  <si>
+    <t>Webpage does not work (15.02.2018).</t>
+  </si>
+  <si>
+    <t>Na, NaK</t>
+  </si>
+  <si>
+    <t>Rb, Dy, LiBa+, CrLi, K, KRb, Yb</t>
+  </si>
+  <si>
+    <t>Location of University of Trento. See also Ferrari group, Stringari group.</t>
+  </si>
+  <si>
+    <t>See also Inguscio group, Tino group.</t>
+  </si>
+  <si>
+    <t>See also Inguscio group, Tino group. New webpage may be http://coldatoms.lens.unifi.it/ (hopefully this is the same group).</t>
+  </si>
+  <si>
+    <t>Sr, Rb</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (17.02.2018). New https://bigbang.nucleares.unam.mx/~jimenez/home/ . Can't find english page.</t>
+  </si>
+  <si>
+    <t>Webpage redirects to the whole institute (17.02.2017).</t>
+  </si>
+  <si>
+    <t>RbHe+</t>
+  </si>
+  <si>
+    <t>The atoms may be from other groups at Universtiy of Amsterdam. I am pretty sure they have more atoms, but can't find which.</t>
+  </si>
+  <si>
+    <t>Redirects to the whole deprtment of physics. See also other groups at Otago.</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (17.02.2018). New is probalby http://microtraps.quantumlah.org/ . They also have ions.</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K, Rb, Li</t>
   </si>
 </sst>
 </file>
@@ -2975,7 +3262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3155,6 +3442,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3317,12 +3610,19 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3645,32 +3945,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L248"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="54.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="4" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3694,14 +3998,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3726,12 +4030,18 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -3752,8 +4062,12 @@
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="K3" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3778,8 +4092,9 @@
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3804,12 +4119,13 @@
       <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
@@ -3833,12 +4149,15 @@
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
@@ -3859,12 +4178,16 @@
       <c r="I7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="s">
@@ -3882,12 +4205,18 @@
       <c r="H8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
@@ -3908,12 +4237,16 @@
       <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C10" t="s">
@@ -3934,12 +4267,18 @@
       <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C11" t="s">
@@ -3957,12 +4296,18 @@
       <c r="H11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C12" t="s">
@@ -3980,8 +4325,12 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -4003,12 +4352,13 @@
       <c r="H13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C14" t="s">
@@ -4029,8 +4379,14 @@
       <c r="I14" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -4055,12 +4411,13 @@
       <c r="I15" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C16" t="s">
@@ -4081,8 +4438,12 @@
       <c r="I16" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -4107,15 +4468,16 @@
       <c r="I17" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D18" t="s">
@@ -4133,12 +4495,18 @@
       <c r="I18" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
@@ -4156,15 +4524,21 @@
       <c r="H19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D20" t="s">
@@ -4182,8 +4556,14 @@
       <c r="I20" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="K20" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -4208,12 +4588,13 @@
       <c r="I21" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C22" t="s">
@@ -4234,12 +4615,18 @@
       <c r="I22" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K22" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C23" t="s">
@@ -4260,8 +4647,14 @@
       <c r="J23" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -4283,12 +4676,13 @@
       <c r="H24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
@@ -4306,12 +4700,18 @@
       <c r="H25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="K25" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
@@ -4332,12 +4732,18 @@
       <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C27" t="s">
@@ -4361,12 +4767,18 @@
       <c r="J27" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C28" t="s">
@@ -4387,12 +4799,18 @@
       <c r="I28" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K28" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>121</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C29" t="s">
@@ -4413,12 +4831,16 @@
       <c r="I29" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K29" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C30" t="s">
@@ -4439,8 +4861,12 @@
       <c r="I30" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -4465,12 +4891,16 @@
       <c r="I31" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>134</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C32" t="s">
@@ -4494,8 +4924,12 @@
       <c r="J32" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K32" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4520,12 +4954,13 @@
       <c r="I33" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>144</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C34" t="s">
@@ -4549,8 +4984,12 @@
       <c r="J34" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -4572,12 +5011,13 @@
       <c r="H35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C36" t="s">
@@ -4601,12 +5041,18 @@
       <c r="J36" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K36" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>152</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C37" t="s">
@@ -4630,12 +5076,16 @@
       <c r="J37" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="K37" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C38" t="s">
@@ -4656,12 +5106,18 @@
       <c r="J38" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>164</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C39" t="s">
@@ -4679,8 +5135,14 @@
       <c r="H39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -4705,8 +5167,9 @@
       <c r="I40" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -4728,8 +5191,9 @@
       <c r="H41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -4757,12 +5221,13 @@
       <c r="J42" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>179</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C43" t="s">
@@ -4783,12 +5248,18 @@
       <c r="J43" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>180</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C44" t="s">
@@ -4806,8 +5277,14 @@
       <c r="H44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K44" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -4832,12 +5309,13 @@
       <c r="I45" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C46" t="s">
@@ -4855,12 +5333,18 @@
       <c r="H46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C47" t="s">
@@ -4878,8 +5362,12 @@
       <c r="H47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -4904,8 +5392,9 @@
       <c r="J48" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>197</v>
       </c>
@@ -4930,8 +5419,14 @@
       <c r="I49" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K49" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -4956,12 +5451,13 @@
       <c r="I50" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C51" t="s">
@@ -4979,12 +5475,15 @@
       <c r="H51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K51" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>207</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C52" t="s">
@@ -5005,12 +5504,18 @@
       <c r="I52" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K52" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C53" t="s">
@@ -5034,8 +5539,12 @@
       <c r="J53" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -5057,8 +5566,9 @@
       <c r="H54" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>219</v>
       </c>
@@ -5086,15 +5596,16 @@
       <c r="J55" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>224</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D56" t="s">
@@ -5115,12 +5626,18 @@
       <c r="J56" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>229</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C57" t="s">
@@ -5138,12 +5655,16 @@
       <c r="H57" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="K57" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>232</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C58" t="s">
@@ -5164,8 +5685,14 @@
       <c r="I58" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K58" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>237</v>
       </c>
@@ -5190,8 +5717,9 @@
       <c r="I59" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>241</v>
       </c>
@@ -5216,12 +5744,13 @@
       <c r="I60" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>245</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C61" t="s">
@@ -5239,12 +5768,18 @@
       <c r="H61" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K61" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>248</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C62" t="s">
@@ -5265,12 +5800,18 @@
       <c r="I62" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>252</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C63" t="s">
@@ -5291,8 +5832,12 @@
       <c r="I63" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K63" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>255</v>
       </c>
@@ -5317,8 +5862,14 @@
       <c r="I64" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K64" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>259</v>
       </c>
@@ -5340,15 +5891,16 @@
       <c r="H65" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>262</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D66" t="s">
@@ -5363,12 +5915,18 @@
       <c r="H66" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K66" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>265</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C67" t="s">
@@ -5386,12 +5944,16 @@
       <c r="H67" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K67" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>268</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C68" t="s">
@@ -5415,15 +5977,19 @@
       <c r="J68" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K68" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>273</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D69" t="s">
@@ -5441,12 +6007,18 @@
       <c r="I69" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="K69" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>278</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C70" t="s">
@@ -5470,14 +6042,14 @@
       <c r="J70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K70" t="s">
-        <v>919</v>
+      <c r="K70" s="4" t="s">
+        <v>1007</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>283</v>
       </c>
@@ -5502,12 +6074,13 @@
       <c r="I71" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>287</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C72" t="s">
@@ -5525,12 +6098,16 @@
       <c r="H72" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K72" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C73" t="s">
@@ -5551,12 +6128,16 @@
       <c r="I73" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K73" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>295</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C74" t="s">
@@ -5574,12 +6155,18 @@
       <c r="H74" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="K74" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>298</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C75" t="s">
@@ -5603,12 +6190,16 @@
       <c r="J75" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K75" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>303</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C76" t="s">
@@ -5626,8 +6217,12 @@
       <c r="H76" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K76" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>306</v>
       </c>
@@ -5649,12 +6244,13 @@
       <c r="H77" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>308</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C78" t="s">
@@ -5672,8 +6268,14 @@
       <c r="H78" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K78" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>308</v>
       </c>
@@ -5698,12 +6300,18 @@
       <c r="I79" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K79" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>310</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C80" t="s">
@@ -5724,15 +6332,21 @@
       <c r="I80" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="K80" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>314</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D81" t="s">
@@ -5753,12 +6367,16 @@
       <c r="J81" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K81" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>319</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C82" t="s">
@@ -5782,15 +6400,18 @@
       <c r="J82" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="K82" s="4" t="s">
+        <v>1000</v>
+      </c>
       <c r="L82" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>325</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C83" t="s">
@@ -5814,12 +6435,18 @@
       <c r="J83" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="K83" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>330</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C84" t="s">
@@ -5843,8 +6470,12 @@
       <c r="J84" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K84" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>335</v>
       </c>
@@ -5866,12 +6497,13 @@
       <c r="H85" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>338</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>339</v>
       </c>
       <c r="C86" t="s">
@@ -5892,12 +6524,18 @@
       <c r="I86" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K86" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>341</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C87" t="s">
@@ -5918,12 +6556,18 @@
       <c r="I87" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K87" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>344</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C88" t="s">
@@ -5941,14 +6585,14 @@
       <c r="H88" t="s">
         <v>28</v>
       </c>
-      <c r="K88" t="s">
-        <v>918</v>
-      </c>
-      <c r="L88" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K88" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>348</v>
       </c>
@@ -5976,14 +6620,14 @@
       <c r="J89" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K89" t="s">
-        <v>921</v>
-      </c>
-      <c r="L89" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K89" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -6005,8 +6649,9 @@
       <c r="H90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -6028,15 +6673,16 @@
       <c r="H91" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>360</v>
       </c>
       <c r="D92" t="s">
@@ -6051,12 +6697,18 @@
       <c r="H92" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K92" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>361</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C93" t="s">
@@ -6080,12 +6732,18 @@
       <c r="J93" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K93" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>366</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C94" t="s">
@@ -6103,8 +6761,14 @@
       <c r="H94" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="K94" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="315" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>369</v>
       </c>
@@ -6129,12 +6793,13 @@
       <c r="I95" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>372</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C96" t="s">
@@ -6155,8 +6820,14 @@
       <c r="J96" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>376</v>
       </c>
@@ -6178,8 +6849,9 @@
       <c r="H97" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>378</v>
       </c>
@@ -6207,8 +6879,9 @@
       <c r="J98" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>383</v>
       </c>
@@ -6230,12 +6903,13 @@
       <c r="H99" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>386</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>387</v>
       </c>
       <c r="C100" t="s">
@@ -6253,8 +6927,14 @@
       <c r="H100" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>389</v>
       </c>
@@ -6279,12 +6959,13 @@
       <c r="J101" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>392</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>393</v>
       </c>
       <c r="C102" t="s">
@@ -6302,12 +6983,16 @@
       <c r="H102" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>395</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>396</v>
       </c>
       <c r="C103" t="s">
@@ -6325,8 +7010,14 @@
       <c r="H103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>397</v>
       </c>
@@ -6351,8 +7042,14 @@
       <c r="I104" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>399</v>
       </c>
@@ -6374,12 +7071,13 @@
       <c r="H105" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>402</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C106" t="s">
@@ -6397,12 +7095,18 @@
       <c r="H106" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K106" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>403</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>404</v>
       </c>
       <c r="C107" t="s">
@@ -6426,15 +7130,21 @@
       <c r="J107" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>407</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D108" t="s">
@@ -6449,12 +7159,16 @@
       <c r="H108" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K108" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>410</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C109" t="s">
@@ -6478,8 +7192,14 @@
       <c r="J109" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K109" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>415</v>
       </c>
@@ -6504,8 +7224,9 @@
       <c r="I110" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>418</v>
       </c>
@@ -6533,15 +7254,19 @@
       <c r="J111" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>424</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D112" t="s">
@@ -6559,8 +7284,12 @@
       <c r="I112" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K112" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>428</v>
       </c>
@@ -6574,29 +7303,32 @@
         <v>155</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>37.841507</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>112.53001399999999</v>
       </c>
       <c r="H113" t="s">
         <v>16</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" s="3" t="s">
         <v>429</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="L113" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K113" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>432</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C114" t="s">
@@ -6620,15 +7352,21 @@
       <c r="J114" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K114" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>438</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>440</v>
       </c>
       <c r="D115" t="s">
@@ -6646,12 +7384,16 @@
       <c r="I115" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="K115" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>442</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>443</v>
       </c>
       <c r="C116" t="s">
@@ -6675,8 +7417,14 @@
       <c r="J116" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+      <c r="K116" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>447</v>
       </c>
@@ -6701,12 +7449,13 @@
       <c r="I117" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>450</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>451</v>
       </c>
       <c r="C118" t="s">
@@ -6727,8 +7476,14 @@
       <c r="I118" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K118" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>455</v>
       </c>
@@ -6750,12 +7505,13 @@
       <c r="H119" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>458</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>459</v>
       </c>
       <c r="C120" t="s">
@@ -6776,8 +7532,14 @@
       <c r="I120" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K120" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>461</v>
       </c>
@@ -6802,12 +7564,13 @@
       <c r="I121" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>464</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>465</v>
       </c>
       <c r="C122" t="s">
@@ -6831,12 +7594,18 @@
       <c r="J122" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K122" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>468</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>469</v>
       </c>
       <c r="C123" t="s">
@@ -6854,8 +7623,12 @@
       <c r="H123" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K123" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>470</v>
       </c>
@@ -6880,12 +7653,13 @@
       <c r="I124" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>474</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>475</v>
       </c>
       <c r="C125" t="s">
@@ -6903,12 +7677,16 @@
       <c r="H125" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K125" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>477</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>478</v>
       </c>
       <c r="C126" t="s">
@@ -6929,12 +7707,16 @@
       <c r="I126" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K126" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>481</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>482</v>
       </c>
       <c r="C127" t="s">
@@ -6952,12 +7734,16 @@
       <c r="H127" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K127" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>484</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>485</v>
       </c>
       <c r="C128" t="s">
@@ -6978,12 +7764,18 @@
       <c r="I128" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K128" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>487</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>488</v>
       </c>
       <c r="C129" t="s">
@@ -7004,12 +7796,18 @@
       <c r="J129" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>491</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>492</v>
       </c>
       <c r="C130" t="s">
@@ -7027,12 +7825,15 @@
       <c r="H130" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K130" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>494</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>495</v>
       </c>
       <c r="C131" t="s">
@@ -7053,8 +7854,14 @@
       <c r="I131" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K131" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>498</v>
       </c>
@@ -7079,12 +7886,13 @@
       <c r="I132" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>501</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C133" t="s">
@@ -7102,8 +7910,14 @@
       <c r="H133" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>502</v>
       </c>
@@ -7128,8 +7942,9 @@
       <c r="I134" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>506</v>
       </c>
@@ -7154,8 +7969,9 @@
       <c r="I135" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>509</v>
       </c>
@@ -7177,8 +7993,9 @@
       <c r="H136" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>512</v>
       </c>
@@ -7206,12 +8023,13 @@
       <c r="J137" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>517</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>518</v>
       </c>
       <c r="C138" t="s">
@@ -7229,12 +8047,16 @@
       <c r="H138" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="K138" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>519</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>520</v>
       </c>
       <c r="C139" t="s">
@@ -7258,8 +8080,12 @@
       <c r="J139" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K139" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>524</v>
       </c>
@@ -7287,12 +8113,13 @@
       <c r="J140" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>529</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>530</v>
       </c>
       <c r="C141" t="s">
@@ -7316,12 +8143,18 @@
       <c r="J141" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K141" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>534</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>535</v>
       </c>
       <c r="C142" t="s">
@@ -7342,12 +8175,16 @@
       <c r="I142" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K142" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>538</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>539</v>
       </c>
       <c r="C143" t="s">
@@ -7368,12 +8205,18 @@
       <c r="I143" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K143" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>542</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C144" t="s">
@@ -7394,15 +8237,19 @@
       <c r="I144" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K144" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>546</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>548</v>
       </c>
       <c r="D145" t="s">
@@ -7423,15 +8270,21 @@
       <c r="J145" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K145" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>551</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>553</v>
       </c>
       <c r="D146" t="s">
@@ -7449,12 +8302,18 @@
       <c r="I146" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="K146" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>555</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C147" t="s">
@@ -7475,12 +8334,18 @@
       <c r="I147" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K147" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>560</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C148" t="s">
@@ -7498,8 +8363,12 @@
       <c r="H148" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="K148" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>563</v>
       </c>
@@ -7524,12 +8393,13 @@
       <c r="I149" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>565</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C150" t="s">
@@ -7550,12 +8420,16 @@
       <c r="I150" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K150" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>570</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>571</v>
       </c>
       <c r="C151" t="s">
@@ -7576,8 +8450,14 @@
       <c r="I151" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K151" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>574</v>
       </c>
@@ -7599,12 +8479,13 @@
       <c r="H152" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>576</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>577</v>
       </c>
       <c r="C153" t="s">
@@ -7622,15 +8503,19 @@
       <c r="H153" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="K153" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>579</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>581</v>
       </c>
       <c r="D154" t="s">
@@ -7648,12 +8533,16 @@
       <c r="I154" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K154" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>583</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>584</v>
       </c>
       <c r="C155" t="s">
@@ -7674,8 +8563,14 @@
       <c r="I155" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K155" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>587</v>
       </c>
@@ -7700,18 +8595,21 @@
       <c r="I156" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="L156" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K156" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>591</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D157" t="s">
@@ -7729,12 +8627,16 @@
       <c r="I157" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K157" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>595</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>596</v>
       </c>
       <c r="C158" t="s">
@@ -7755,11 +8657,14 @@
       <c r="J158" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="L158" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K158" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>598</v>
       </c>
@@ -7787,18 +8692,21 @@
       <c r="J159" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="L159" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K159" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>603</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>605</v>
       </c>
       <c r="D160" t="s">
@@ -7819,8 +8727,12 @@
       <c r="J160" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="K160" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>608</v>
       </c>
@@ -7845,8 +8757,9 @@
       <c r="I161" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>611</v>
       </c>
@@ -7871,12 +8784,13 @@
       <c r="J162" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>615</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>616</v>
       </c>
       <c r="C163" t="s">
@@ -7900,12 +8814,18 @@
       <c r="J163" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K163" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="L163" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>620</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>621</v>
       </c>
       <c r="C164" t="s">
@@ -7923,8 +8843,14 @@
       <c r="H164" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="K164" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>623</v>
       </c>
@@ -7949,11 +8875,14 @@
       <c r="I165" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="L165" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K165" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>627</v>
       </c>
@@ -7978,8 +8907,9 @@
       <c r="I166" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>630</v>
       </c>
@@ -8004,8 +8934,9 @@
       <c r="I167" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>633</v>
       </c>
@@ -8030,12 +8961,13 @@
       <c r="I168" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>637</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>638</v>
       </c>
       <c r="C169" t="s">
@@ -8059,8 +8991,12 @@
       <c r="J169" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K169" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>642</v>
       </c>
@@ -8085,12 +9021,13 @@
       <c r="I170" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>645</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>646</v>
       </c>
       <c r="C171" t="s">
@@ -8114,12 +9051,16 @@
       <c r="J171" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K171" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>650</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>651</v>
       </c>
       <c r="C172" t="s">
@@ -8143,15 +9084,21 @@
       <c r="J172" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K172" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>655</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>657</v>
       </c>
       <c r="D173" t="s">
@@ -8166,12 +9113,16 @@
       <c r="H173" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K173" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>658</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>659</v>
       </c>
       <c r="C174" t="s">
@@ -8192,8 +9143,14 @@
       <c r="I174" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="K174" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>662</v>
       </c>
@@ -8218,12 +9175,13 @@
       <c r="I175" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>665</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>666</v>
       </c>
       <c r="C176" t="s">
@@ -8247,12 +9205,18 @@
       <c r="J176" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K176" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>670</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C177" t="s">
@@ -8273,12 +9237,18 @@
       <c r="J177" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K177" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>673</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>674</v>
       </c>
       <c r="C178" t="s">
@@ -8296,8 +9266,12 @@
       <c r="H178" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="K178" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>675</v>
       </c>
@@ -8322,15 +9296,16 @@
       <c r="I179" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>679</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>681</v>
       </c>
       <c r="D180" t="s">
@@ -8345,8 +9320,12 @@
       <c r="H180" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K180" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>682</v>
       </c>
@@ -8371,12 +9350,13 @@
       <c r="I181" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>686</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>687</v>
       </c>
       <c r="C182" t="s">
@@ -8400,12 +9380,18 @@
       <c r="J182" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K182" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>691</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C183" t="s">
@@ -8426,8 +9412,14 @@
       <c r="J183" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="K183" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L183" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>693</v>
       </c>
@@ -8452,18 +9444,21 @@
       <c r="I184" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="L184" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K184" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>697</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>699</v>
       </c>
       <c r="D185" t="s">
@@ -8478,8 +9473,12 @@
       <c r="H185" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K185" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>700</v>
       </c>
@@ -8504,8 +9503,9 @@
       <c r="I186" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>704</v>
       </c>
@@ -8530,15 +9530,16 @@
       <c r="I187" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>708</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>710</v>
       </c>
       <c r="D188" t="s">
@@ -8556,15 +9557,19 @@
       <c r="I188" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K188" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>712</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>714</v>
       </c>
       <c r="D189" t="s">
@@ -8582,8 +9587,12 @@
       <c r="I189" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K189" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>715</v>
       </c>
@@ -8608,15 +9617,16 @@
       <c r="I190" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>719</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>714</v>
       </c>
       <c r="D191" t="s">
@@ -8634,15 +9644,21 @@
       <c r="I191" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K191" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>722</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>724</v>
       </c>
       <c r="D192" t="s">
@@ -8660,8 +9676,14 @@
       <c r="J192" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K192" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>726</v>
       </c>
@@ -8689,12 +9711,13 @@
       <c r="J193" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>731</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>732</v>
       </c>
       <c r="C194" t="s">
@@ -8715,12 +9738,16 @@
       <c r="I194" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K194" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>735</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>736</v>
       </c>
       <c r="C195" t="s">
@@ -8738,8 +9765,14 @@
       <c r="H195" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K195" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>737</v>
       </c>
@@ -8764,8 +9797,14 @@
       <c r="I196" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K196" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>742</v>
       </c>
@@ -8790,12 +9829,13 @@
       <c r="I197" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>746</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>747</v>
       </c>
       <c r="C198" t="s">
@@ -8819,12 +9859,16 @@
       <c r="J198" s="1" t="s">
         <v>750</v>
       </c>
+      <c r="K198" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L198" s="1"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>751</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>752</v>
       </c>
       <c r="C199" t="s">
@@ -8842,12 +9886,16 @@
       <c r="H199" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="K199" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>753</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C200" t="s">
@@ -8871,11 +9919,14 @@
       <c r="J200" s="1" t="s">
         <v>756</v>
       </c>
+      <c r="K200" s="4" t="s">
+        <v>930</v>
+      </c>
       <c r="L200" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>757</v>
       </c>
@@ -8897,12 +9948,13 @@
       <c r="H201" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>760</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>761</v>
       </c>
       <c r="C202" t="s">
@@ -8923,12 +9975,18 @@
       <c r="I202" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K202" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>763</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>764</v>
       </c>
       <c r="C203" t="s">
@@ -8949,12 +10007,16 @@
       <c r="I203" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K203" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L203" s="1"/>
+    </row>
+    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>767</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>768</v>
       </c>
       <c r="C204" t="s">
@@ -8975,12 +10037,16 @@
       <c r="I204" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K204" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>771</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>772</v>
       </c>
       <c r="C205" t="s">
@@ -8998,12 +10064,16 @@
       <c r="H205" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="K205" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>774</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>775</v>
       </c>
       <c r="C206" t="s">
@@ -9027,8 +10097,12 @@
       <c r="J206" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K206" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>780</v>
       </c>
@@ -9050,8 +10124,9 @@
       <c r="H207" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="L207" s="1"/>
+    </row>
+    <row r="208" spans="1:12" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>783</v>
       </c>
@@ -9076,12 +10151,13 @@
       <c r="I208" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L208" s="1"/>
+    </row>
+    <row r="209" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>786</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>787</v>
       </c>
       <c r="C209" t="s">
@@ -9102,12 +10178,16 @@
       <c r="I209" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K209" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="L209" s="1"/>
+    </row>
+    <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>789</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>790</v>
       </c>
       <c r="C210" t="s">
@@ -9131,12 +10211,18 @@
       <c r="J210" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K210" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>792</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>793</v>
       </c>
       <c r="C211" t="s">
@@ -9157,12 +10243,18 @@
       <c r="I211" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>795</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>796</v>
       </c>
       <c r="C212" t="s">
@@ -9183,12 +10275,16 @@
       <c r="I212" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K212" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>799</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>800</v>
       </c>
       <c r="C213" t="s">
@@ -9212,12 +10308,16 @@
       <c r="J213" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>804</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C214" t="s">
@@ -9238,12 +10338,18 @@
       <c r="J214" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K214" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>807</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>808</v>
       </c>
       <c r="C215" t="s">
@@ -9264,12 +10370,18 @@
       <c r="I215" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K215" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="L215" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>811</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>812</v>
       </c>
       <c r="C216" t="s">
@@ -9290,12 +10402,18 @@
       <c r="J216" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>814</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>815</v>
       </c>
       <c r="C217" t="s">
@@ -9313,12 +10431,16 @@
       <c r="H217" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>817</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>818</v>
       </c>
       <c r="C218" t="s">
@@ -9336,8 +10458,12 @@
       <c r="H218" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>819</v>
       </c>
@@ -9359,8 +10485,9 @@
       <c r="H219" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>821</v>
       </c>
@@ -9382,12 +10509,13 @@
       <c r="H220" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L220" s="1"/>
+    </row>
+    <row r="221" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>824</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>825</v>
       </c>
       <c r="C221" t="s">
@@ -9408,12 +10536,18 @@
       <c r="I221" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>828</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>829</v>
       </c>
       <c r="C222" t="s">
@@ -9434,15 +10568,21 @@
       <c r="I222" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>833</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D223" t="s">
@@ -9460,15 +10600,19 @@
       <c r="I223" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K223" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="L223" s="1"/>
+    </row>
+    <row r="224" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>836</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="1" t="s">
         <v>699</v>
       </c>
       <c r="D224" t="s">
@@ -9486,8 +10630,12 @@
       <c r="I224" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K224" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L224" s="1"/>
+    </row>
+    <row r="225" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>839</v>
       </c>
@@ -9512,15 +10660,16 @@
       <c r="I225" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>842</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="1" t="s">
         <v>844</v>
       </c>
       <c r="D226" t="s">
@@ -9535,8 +10684,12 @@
       <c r="H226" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>845</v>
       </c>
@@ -9558,12 +10711,13 @@
       <c r="H227" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="L227" s="1"/>
+    </row>
+    <row r="228" spans="1:12" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>848</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C228" t="s">
@@ -9584,8 +10738,14 @@
       <c r="J228" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>849</v>
       </c>
@@ -9607,15 +10767,16 @@
       <c r="H229" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>852</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="1" t="s">
         <v>854</v>
       </c>
       <c r="D230" t="s">
@@ -9630,8 +10791,12 @@
       <c r="H230" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>855</v>
       </c>
@@ -9653,12 +10818,13 @@
       <c r="H231" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>857</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>858</v>
       </c>
       <c r="C232" t="s">
@@ -9682,8 +10848,12 @@
       <c r="J232" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>861</v>
       </c>
@@ -9705,12 +10875,13 @@
       <c r="H233" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>864</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C234" t="s">
@@ -9731,12 +10902,18 @@
       <c r="I234" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K234" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>866</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C235" t="s">
@@ -9760,8 +10937,12 @@
       <c r="J235" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="K235" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>871</v>
       </c>
@@ -9786,8 +10967,9 @@
       <c r="I236" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>874</v>
       </c>
@@ -9809,12 +10991,13 @@
       <c r="H237" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>877</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C238" t="s">
@@ -9838,12 +11021,16 @@
       <c r="J238" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>882</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>883</v>
       </c>
       <c r="C239" t="s">
@@ -9861,8 +11048,14 @@
       <c r="H239" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>885</v>
       </c>
@@ -9884,8 +11077,9 @@
       <c r="H240" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>887</v>
       </c>
@@ -9907,12 +11101,13 @@
       <c r="H241" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>890</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>891</v>
       </c>
       <c r="C242" t="s">
@@ -9933,12 +11128,18 @@
       <c r="I242" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K242" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>894</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>895</v>
       </c>
       <c r="C243" t="s">
@@ -9959,15 +11160,19 @@
       <c r="I243" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K243" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>898</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="1" t="s">
         <v>900</v>
       </c>
       <c r="D244" t="s">
@@ -9982,18 +11187,21 @@
       <c r="H244" t="s">
         <v>28</v>
       </c>
-      <c r="L244" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K244" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>901</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="1" t="s">
         <v>360</v>
       </c>
       <c r="D245" t="s">
@@ -10011,8 +11219,12 @@
       <c r="J245" s="1" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K245" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>904</v>
       </c>
@@ -10034,12 +11246,13 @@
       <c r="H246" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L246" s="1"/>
+    </row>
+    <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>907</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>908</v>
       </c>
       <c r="C247" t="s">
@@ -10057,8 +11270,14 @@
       <c r="H247" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="K247" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>910</v>
       </c>
@@ -10081,14 +11300,40 @@
         <v>28</v>
       </c>
       <c r="I248" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J248" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="J248" s="1" t="s">
-        <v>915</v>
-      </c>
+      <c r="K248" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J249" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="K249" s="4">
+        <f>COUNTA(K2:K248)</f>
+        <v>174</v>
+      </c>
+      <c r="L249" s="1"/>
+    </row>
+    <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J250" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="K250" s="4">
+        <f>248-2-COUNTA(K2:K248)</f>
+        <v>72</v>
+      </c>
+      <c r="L250" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L248"/>
+  <autoFilter ref="A1:L250"/>
   <hyperlinks>
     <hyperlink ref="B88" r:id="rId1"/>
     <hyperlink ref="B89" r:id="rId2"/>
@@ -10101,8 +11346,165 @@
     <hyperlink ref="B184" r:id="rId9"/>
     <hyperlink ref="B248" r:id="rId10"/>
     <hyperlink ref="B159" r:id="rId11"/>
+    <hyperlink ref="B107" r:id="rId12"/>
+    <hyperlink ref="B22" r:id="rId13"/>
+    <hyperlink ref="B28" r:id="rId14"/>
+    <hyperlink ref="B87" r:id="rId15"/>
+    <hyperlink ref="B34" r:id="rId16"/>
+    <hyperlink ref="B47" r:id="rId17"/>
+    <hyperlink ref="B94" r:id="rId18"/>
+    <hyperlink ref="B128" r:id="rId19"/>
+    <hyperlink ref="B74" r:id="rId20"/>
+    <hyperlink ref="B75" r:id="rId21"/>
+    <hyperlink ref="B178" r:id="rId22"/>
+    <hyperlink ref="B76" r:id="rId23"/>
+    <hyperlink ref="B100" r:id="rId24"/>
+    <hyperlink ref="B131" r:id="rId25"/>
+    <hyperlink ref="B144" r:id="rId26"/>
+    <hyperlink ref="B176" r:id="rId27"/>
+    <hyperlink ref="B174" r:id="rId28"/>
+    <hyperlink ref="B44" r:id="rId29"/>
+    <hyperlink ref="B53" r:id="rId30"/>
+    <hyperlink ref="B96" r:id="rId31"/>
+    <hyperlink ref="B103" r:id="rId32"/>
+    <hyperlink ref="B120" r:id="rId33"/>
+    <hyperlink ref="B122" r:id="rId34"/>
+    <hyperlink ref="B177" r:id="rId35"/>
+    <hyperlink ref="B195" r:id="rId36"/>
+    <hyperlink ref="B214" r:id="rId37"/>
+    <hyperlink ref="B216" r:id="rId38"/>
+    <hyperlink ref="B69" r:id="rId39"/>
+    <hyperlink ref="B92" r:id="rId40"/>
+    <hyperlink ref="B189" r:id="rId41"/>
+    <hyperlink ref="B191" r:id="rId42"/>
+    <hyperlink ref="B245" r:id="rId43"/>
+    <hyperlink ref="B206" r:id="rId44"/>
+    <hyperlink ref="B32" r:id="rId45"/>
+    <hyperlink ref="B141" r:id="rId46"/>
+    <hyperlink ref="B23" r:id="rId47"/>
+    <hyperlink ref="B68" r:id="rId48"/>
+    <hyperlink ref="B126" r:id="rId49"/>
+    <hyperlink ref="B138" r:id="rId50"/>
+    <hyperlink ref="B142" r:id="rId51"/>
+    <hyperlink ref="B143" r:id="rId52"/>
+    <hyperlink ref="B151" r:id="rId53"/>
+    <hyperlink ref="B155" r:id="rId54"/>
+    <hyperlink ref="B198" r:id="rId55"/>
+    <hyperlink ref="B210" r:id="rId56"/>
+    <hyperlink ref="B217" r:id="rId57"/>
+    <hyperlink ref="B239" r:id="rId58"/>
+    <hyperlink ref="B247" r:id="rId59"/>
+    <hyperlink ref="B36" r:id="rId60"/>
+    <hyperlink ref="B37" r:id="rId61"/>
+    <hyperlink ref="B242" r:id="rId62"/>
+    <hyperlink ref="B243" r:id="rId63"/>
+    <hyperlink ref="I113" r:id="rId64"/>
+    <hyperlink ref="B12" r:id="rId65"/>
+    <hyperlink ref="B9" r:id="rId66"/>
+    <hyperlink ref="B164" r:id="rId67"/>
+    <hyperlink ref="B202" r:id="rId68"/>
+    <hyperlink ref="B209" r:id="rId69"/>
+    <hyperlink ref="B150" r:id="rId70"/>
+    <hyperlink ref="B212" r:id="rId71"/>
+    <hyperlink ref="B6" r:id="rId72"/>
+    <hyperlink ref="B10" r:id="rId73"/>
+    <hyperlink ref="B25" r:id="rId74"/>
+    <hyperlink ref="B26" r:id="rId75"/>
+    <hyperlink ref="B27" r:id="rId76"/>
+    <hyperlink ref="B38" r:id="rId77"/>
+    <hyperlink ref="B39" r:id="rId78"/>
+    <hyperlink ref="B43" r:id="rId79"/>
+    <hyperlink ref="B46" r:id="rId80"/>
+    <hyperlink ref="B51" r:id="rId81"/>
+    <hyperlink ref="B62" r:id="rId82"/>
+    <hyperlink ref="B80" r:id="rId83"/>
+    <hyperlink ref="B83" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B93" r:id="rId86"/>
+    <hyperlink ref="B116" r:id="rId87"/>
+    <hyperlink ref="B129" r:id="rId88"/>
+    <hyperlink ref="B130" r:id="rId89"/>
+    <hyperlink ref="B133" r:id="rId90"/>
+    <hyperlink ref="B158" r:id="rId91"/>
+    <hyperlink ref="B163" r:id="rId92"/>
+    <hyperlink ref="B172" r:id="rId93"/>
+    <hyperlink ref="B183" r:id="rId94"/>
+    <hyperlink ref="B228" r:id="rId95"/>
+    <hyperlink ref="B18" r:id="rId96"/>
+    <hyperlink ref="B20" r:id="rId97"/>
+    <hyperlink ref="B56" r:id="rId98"/>
+    <hyperlink ref="B66" r:id="rId99"/>
+    <hyperlink ref="B81" r:id="rId100"/>
+    <hyperlink ref="B108" r:id="rId101"/>
+    <hyperlink ref="B112" r:id="rId102"/>
+    <hyperlink ref="B115" r:id="rId103"/>
+    <hyperlink ref="B145" r:id="rId104"/>
+    <hyperlink ref="B146" r:id="rId105"/>
+    <hyperlink ref="B154" r:id="rId106"/>
+    <hyperlink ref="B157" r:id="rId107"/>
+    <hyperlink ref="B160" r:id="rId108"/>
+    <hyperlink ref="B173" r:id="rId109"/>
+    <hyperlink ref="B180" r:id="rId110"/>
+    <hyperlink ref="B185" r:id="rId111"/>
+    <hyperlink ref="B192" r:id="rId112"/>
+    <hyperlink ref="B223" r:id="rId113"/>
+    <hyperlink ref="B224" r:id="rId114"/>
+    <hyperlink ref="B226" r:id="rId115"/>
+    <hyperlink ref="B230" r:id="rId116"/>
+    <hyperlink ref="B222" r:id="rId117"/>
+    <hyperlink ref="B16" r:id="rId118"/>
+    <hyperlink ref="B84" r:id="rId119"/>
+    <hyperlink ref="B169" r:id="rId120"/>
+    <hyperlink ref="B171" r:id="rId121"/>
+    <hyperlink ref="B194" r:id="rId122"/>
+    <hyperlink ref="B205" r:id="rId123"/>
+    <hyperlink ref="B215" r:id="rId124"/>
+    <hyperlink ref="B235" r:id="rId125"/>
+    <hyperlink ref="B3" r:id="rId126"/>
+    <hyperlink ref="B52" r:id="rId127"/>
+    <hyperlink ref="B73" r:id="rId128"/>
+    <hyperlink ref="B8" r:id="rId129"/>
+    <hyperlink ref="B70" r:id="rId130"/>
+    <hyperlink ref="B109" r:id="rId131"/>
+    <hyperlink ref="B182" r:id="rId132"/>
+    <hyperlink ref="B200" r:id="rId133"/>
+    <hyperlink ref="B211" r:id="rId134"/>
+    <hyperlink ref="B127" r:id="rId135"/>
+    <hyperlink ref="B148" r:id="rId136"/>
+    <hyperlink ref="B153" r:id="rId137"/>
+    <hyperlink ref="B203" r:id="rId138"/>
+    <hyperlink ref="B72" r:id="rId139"/>
+    <hyperlink ref="B114" r:id="rId140"/>
+    <hyperlink ref="B58" r:id="rId141"/>
+    <hyperlink ref="B61" r:id="rId142"/>
+    <hyperlink ref="B125" r:id="rId143"/>
+    <hyperlink ref="B199" r:id="rId144"/>
+    <hyperlink ref="B218" r:id="rId145"/>
+    <hyperlink ref="B221" r:id="rId146"/>
+    <hyperlink ref="B11" r:id="rId147"/>
+    <hyperlink ref="B19" r:id="rId148"/>
+    <hyperlink ref="B29" r:id="rId149"/>
+    <hyperlink ref="B30" r:id="rId150"/>
+    <hyperlink ref="B78" r:id="rId151"/>
+    <hyperlink ref="B102" r:id="rId152"/>
+    <hyperlink ref="B106" r:id="rId153"/>
+    <hyperlink ref="B123" r:id="rId154"/>
+    <hyperlink ref="B234" r:id="rId155"/>
+    <hyperlink ref="B7" r:id="rId156"/>
+    <hyperlink ref="B14" r:id="rId157"/>
+    <hyperlink ref="B57" r:id="rId158"/>
+    <hyperlink ref="B63" r:id="rId159"/>
+    <hyperlink ref="B67" r:id="rId160"/>
+    <hyperlink ref="B118" r:id="rId161"/>
+    <hyperlink ref="B147" r:id="rId162"/>
+    <hyperlink ref="B204" r:id="rId163"/>
+    <hyperlink ref="B232" r:id="rId164"/>
+    <hyperlink ref="B82" r:id="rId165"/>
+    <hyperlink ref="B139" r:id="rId166"/>
+    <hyperlink ref="B213" r:id="rId167"/>
+    <hyperlink ref="B238" r:id="rId168"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId169"/>
 </worksheet>
 </file>
--- a/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ucan_utoronto_database_producti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$248</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1057">
   <si>
     <t>name</t>
   </si>
@@ -2796,10 +2796,6 @@
     <t>See also: Adams group, Cornish group, Gardiner group, Hughes group, Hutson group, Parker group, Proukakis group.</t>
   </si>
   <si>
-    <t>Webpage doesn't work (15.02.2018).
-See also: Adams group, Cornish group, Gardiner group, Hughes group, Hutson group, Parker group, Proukakis group.</t>
-  </si>
-  <si>
     <t>Rb</t>
   </si>
   <si>
@@ -2875,10 +2871,6 @@
     <t>RbCs, Cs, LiK, KCs, DyK</t>
   </si>
   <si>
-    <t>See also Ferlaino group.
-Possibly also Cr.</t>
-  </si>
-  <si>
     <t>Rb, Li, KRb</t>
   </si>
   <si>
@@ -2927,12 +2919,6 @@
     <t>Rb, RbK</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>To do</t>
-  </si>
-  <si>
     <t>Webpage doesn't work (15.02.2018). See also: Adams group, Cornish group, Gardiner group, Hughes group, Hutson group, Parker group, Proukakis group.</t>
   </si>
   <si>
@@ -3093,6 +3079,120 @@
   </si>
   <si>
     <t>K, Rb, Li</t>
+  </si>
+  <si>
+    <t>See also Ferlaino group. Possibly also Cr.</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work. New https://web2.ph.utexas.edu/~coldatom/</t>
+  </si>
+  <si>
+    <t>Rb, He, Li, Cs</t>
+  </si>
+  <si>
+    <t>H, Li</t>
+  </si>
+  <si>
+    <t>Webpage doesn't work (19.02.2018).</t>
+  </si>
+  <si>
+    <t>New webpage http://www.physics.ox.ac.uk/groups/qubit/</t>
+  </si>
+  <si>
+    <t>Li, Sr</t>
+  </si>
+  <si>
+    <t>New webpage https://www.nhn.ou.edu/~shaffer/research/</t>
+  </si>
+  <si>
+    <t>Cs, Rb</t>
+  </si>
+  <si>
+    <t>New webpage http://www.manyparticle.org/~barthel/ . May be inccorect as this website is of a theoretical group.</t>
+  </si>
+  <si>
+    <t>New webpage https://web.stanford.edu/group/chugroup/</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>New webpage http://levlab.stanford.edu/</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>New webpage http://ultracold.physics.berkeley.edu/ .</t>
+  </si>
+  <si>
+    <t>LiRb, Rb, K</t>
+  </si>
+  <si>
+    <t>Rb, molecules</t>
+  </si>
+  <si>
+    <t>NH molecules.</t>
+  </si>
+  <si>
+    <t>Other molecules KRb, OH, YO, ND3 and H2CO.</t>
+  </si>
+  <si>
+    <t>Sr, Rb, molecules(KRb, …)</t>
+  </si>
+  <si>
+    <t>Rb, Cd</t>
+  </si>
+  <si>
+    <t>New webpage http://www.phys.psu.edu/people/kmo10</t>
+  </si>
+  <si>
+    <t>New webpage http://www.phys.psu.edu/people/dsw13</t>
+  </si>
+  <si>
+    <t>RbK, NaK</t>
+  </si>
+  <si>
+    <t>Sr, BaH</t>
+  </si>
+  <si>
+    <t>RbCs, SrF</t>
+  </si>
+  <si>
+    <t>SrF are actually molecules that are cooled (in contrast to producing molecules from cooled atoms).</t>
+  </si>
+  <si>
+    <t>Cs, LiCs</t>
+  </si>
+  <si>
+    <t>Rb, Na, Li, Dy</t>
+  </si>
+  <si>
+    <t>Li, Na, K</t>
+  </si>
+  <si>
+    <t>molecules</t>
+  </si>
+  <si>
+    <t>Molecules include CaF, SF6. Also ultracold neutrons, laser-less cooling…</t>
+  </si>
+  <si>
+    <t>Rb, Li, Er</t>
+  </si>
+  <si>
+    <t>New webpage https://calvin.edu/directory/people/matthew-walhout</t>
+  </si>
+  <si>
+    <t>Rb, Cs, Ho</t>
+  </si>
+  <si>
+    <t>NaCs, Rb</t>
+  </si>
+  <si>
+    <t>New website http://faculty.washington.edu/deepg/</t>
+  </si>
+  <si>
+    <t>Li, Yb</t>
   </si>
 </sst>
 </file>
@@ -3262,7 +3362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3448,6 +3548,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3610,7 +3716,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3623,6 +3729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3669,7 +3776,49 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3680,6 +3829,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L248" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:L248"/>
+  <sortState ref="A4:L246">
+    <sortCondition ref="F1:F250"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" name="name"/>
+    <tableColumn id="2" name="webpage" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="institution"/>
+    <tableColumn id="4" name="country"/>
+    <tableColumn id="5" name="address"/>
+    <tableColumn id="6" name="lat"/>
+    <tableColumn id="7" name="long"/>
+    <tableColumn id="8" name="exp_theor"/>
+    <tableColumn id="9" name="fields" dataDxfId="5"/>
+    <tableColumn id="10" name="people" dataDxfId="2"/>
+    <tableColumn id="11" name="atom" dataDxfId="0"/>
+    <tableColumn id="12" name="comment" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3945,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L250"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,14 +4129,14 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="41.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14" style="6" customWidth="1"/>
     <col min="12" max="12" width="42.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3998,7 +4171,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -4030,8 +4203,8 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>937</v>
+      <c r="K2" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>923</v>
@@ -4062,64 +4235,68 @@
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>930</v>
+      <c r="K3" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
+        <v>180</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="F4">
-        <v>32.2318851</v>
+        <v>-35.277699900000002</v>
       </c>
       <c r="G4">
-        <v>-110.9501094</v>
+        <v>149.118527</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
+        <v>383</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="F5">
-        <v>40.007436300000002</v>
+        <v>30.2849185</v>
       </c>
       <c r="G5">
-        <v>-105.26864809999999</v>
+        <v>-97.734056699999996</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="K5" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4149,8 +4326,8 @@
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>930</v>
+      <c r="K6" s="6" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4178,8 +4355,8 @@
       <c r="I7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>925</v>
+      <c r="K7" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -4205,11 +4382,11 @@
       <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>929</v>
+      <c r="K8" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4237,8 +4414,8 @@
       <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>966</v>
+      <c r="K9" s="6" t="s">
+        <v>964</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -4267,11 +4444,11 @@
       <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>987</v>
+      <c r="K10" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,11 +4473,11 @@
       <c r="H11" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>930</v>
+      <c r="K11" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4325,32 +4502,38 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>925</v>
+      <c r="K12" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
+        <v>633</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>635</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="F13">
-        <v>32.880060399999998</v>
+        <v>30.2849185</v>
       </c>
       <c r="G13">
-        <v>-117.2340135</v>
+        <v>-97.734056699999996</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1022</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -4379,37 +4562,40 @@
       <c r="I14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>925</v>
+      <c r="K14" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="F15">
-        <v>40.007436300000002</v>
+        <v>32.2318851</v>
       </c>
       <c r="G15">
-        <v>-105.26864809999999</v>
+        <v>-110.9501094</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -4438,35 +4624,35 @@
       <c r="I16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>930</v>
+      <c r="K16" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="F17">
-        <v>43.1305531</v>
+        <v>32.880060399999998</v>
       </c>
       <c r="G17">
-        <v>-77.626003299999994</v>
+        <v>-117.2340135</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>916</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -4495,11 +4681,11 @@
       <c r="I18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>971</v>
+      <c r="K18" s="6" t="s">
+        <v>967</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,11 +4710,11 @@
       <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>930</v>
+      <c r="K19" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,37 +4742,37 @@
       <c r="I20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>972</v>
+      <c r="K20" s="6" t="s">
+        <v>968</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
+        <v>887</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>888</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>889</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="F21">
-        <v>40.007436300000002</v>
+        <v>32.9857619</v>
       </c>
       <c r="G21">
-        <v>-105.26864809999999</v>
+        <v>-96.750099300000002</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>97</v>
+      <c r="K21" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -4615,11 +4801,11 @@
       <c r="I22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,36 +4833,41 @@
       <c r="J23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>930</v>
+      <c r="K23" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>108</v>
+        <v>149</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="F24">
-        <v>35.844058199999999</v>
+        <v>33.775617799999999</v>
       </c>
       <c r="G24">
-        <v>-106.287162</v>
+        <v>-84.396285000000006</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="K24" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4700,11 +4891,11 @@
       <c r="H25" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>987</v>
+      <c r="K25" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,11 +4923,11 @@
       <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>987</v>
+      <c r="K26" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4767,11 +4958,11 @@
       <c r="J27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>991</v>
+      <c r="K27" s="6" t="s">
+        <v>987</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4799,11 +4990,11 @@
       <c r="I28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4831,8 +5022,8 @@
       <c r="I29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>930</v>
+      <c r="K29" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -4861,8 +5052,8 @@
       <c r="I30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>930</v>
+      <c r="K30" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -4891,8 +5082,8 @@
       <c r="I31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>979</v>
+      <c r="K31" s="6" t="s">
+        <v>975</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -4924,37 +5115,42 @@
       <c r="J32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>930</v>
+      <c r="K32" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" t="s">
-        <v>141</v>
+        <v>642</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
       <c r="F33">
-        <v>39.7510136</v>
+        <v>33.775617799999999</v>
       </c>
       <c r="G33">
-        <v>-105.2225705</v>
+        <v>-84.396285000000006</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="1"/>
+        <v>644</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4984,34 +5180,42 @@
       <c r="J34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>925</v>
+      <c r="K34" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
+        <v>283</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
       <c r="F35">
-        <v>33.775617799999999</v>
+        <v>33.948005299999998</v>
       </c>
       <c r="G35">
-        <v>-84.396285000000006</v>
+        <v>-83.377322100000001</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5041,11 +5245,11 @@
       <c r="J36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>929</v>
+      <c r="K36" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5076,8 +5280,8 @@
       <c r="J37" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>930</v>
+      <c r="K37" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L37" s="1"/>
     </row>
@@ -5106,11 +5310,11 @@
       <c r="J38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>987</v>
+      <c r="K38" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5135,93 +5339,106 @@
       <c r="H39" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>993</v>
+      <c r="K39" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" t="s">
-        <v>168</v>
+        <v>849</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>850</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>851</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="F40">
-        <v>41.788607900000002</v>
+        <v>34.097743000000001</v>
       </c>
       <c r="G40">
-        <v>-87.5987133</v>
+        <v>-117.711803</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>170</v>
+      <c r="K40" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" t="s">
-        <v>172</v>
+        <v>524</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>526</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="F41">
-        <v>37.427474500000002</v>
+        <v>34.201308099999999</v>
       </c>
       <c r="G41">
-        <v>-122.169719</v>
+        <v>-118.1713944</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" t="s">
-        <v>175</v>
+        <v>415</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>297</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="F42">
-        <v>39.138053200000002</v>
+        <v>34.366495100000002</v>
       </c>
       <c r="G42">
-        <v>-77.220833900000002</v>
+        <v>-89.519248399999995</v>
       </c>
       <c r="H42" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L42" s="1"/>
+        <v>417</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5248,68 +5465,74 @@
       <c r="J43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>987</v>
+      <c r="K43" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>181</v>
+        <v>845</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>846</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>847</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="F44">
-        <v>-35.277699900000002</v>
+        <v>34.413962900000001</v>
       </c>
       <c r="G44">
-        <v>149.118527</v>
+        <v>-119.848947</v>
       </c>
       <c r="H44" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" t="s">
-        <v>185</v>
+        <v>726</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>728</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="F45">
-        <v>44.477852800000001</v>
+        <v>35.205893600000003</v>
       </c>
       <c r="G45">
-        <v>-73.196463699999995</v>
+        <v>-97.445713699999999</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L45" s="1"/>
+        <v>729</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5333,11 +5556,11 @@
       <c r="H46" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>993</v>
+      <c r="K46" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5362,35 +5585,35 @@
       <c r="H47" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>930</v>
+      <c r="K47" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" t="s">
-        <v>195</v>
+        <v>107</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="F48">
-        <v>40.007436300000002</v>
+        <v>35.844058199999999</v>
       </c>
       <c r="G48">
-        <v>-105.26864809999999</v>
+        <v>-106.287162</v>
       </c>
       <c r="H48" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>196</v>
+      <c r="K48" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L48" s="1"/>
     </row>
@@ -5419,39 +5642,41 @@
       <c r="I49" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>937</v>
+      <c r="K49" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" t="s">
-        <v>202</v>
+        <v>780</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>782</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="F50">
-        <v>40.007436300000002</v>
+        <v>36.0014258</v>
       </c>
       <c r="G50">
-        <v>-105.26864809999999</v>
+        <v>-78.938228600000002</v>
       </c>
       <c r="H50" t="s">
         <v>28</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L50" s="1"/>
+      <c r="K50" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -5475,8 +5700,8 @@
       <c r="H51" t="s">
         <v>28</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>929</v>
+      <c r="K51" s="6" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5504,11 +5729,11 @@
       <c r="I52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>929</v>
+      <c r="K52" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5539,62 +5764,68 @@
       <c r="J53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>930</v>
+      <c r="K53" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B54" t="s">
-        <v>217</v>
+        <v>509</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>511</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="F54">
-        <v>40.105215899999997</v>
+        <v>36.127023600000001</v>
       </c>
       <c r="G54">
-        <v>-88.225920500000001</v>
+        <v>-97.073722200000006</v>
       </c>
       <c r="H54" t="s">
         <v>28</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>991</v>
       </c>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" t="s">
-        <v>220</v>
+        <v>378</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="F55">
-        <v>41.316324399999999</v>
+        <v>36.885610399999997</v>
       </c>
       <c r="G55">
-        <v>-72.922343100000006</v>
+        <v>-76.306777699999998</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>223</v>
+        <v>382</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L55" s="1"/>
     </row>
@@ -5626,11 +5857,11 @@
       <c r="J56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>976</v>
+      <c r="K56" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5655,8 +5886,8 @@
       <c r="H57" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>939</v>
+      <c r="K57" s="6" t="s">
+        <v>938</v>
       </c>
       <c r="L57" s="1"/>
     </row>
@@ -5685,66 +5916,71 @@
       <c r="I58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>929</v>
+      <c r="K58" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" t="s">
-        <v>238</v>
+        <v>704</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
+        <v>706</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="F59">
-        <v>42.377002900000001</v>
+        <v>37.228384300000002</v>
       </c>
       <c r="G59">
-        <v>-71.116660100000004</v>
+        <v>-80.423416700000004</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>240</v>
+        <v>707</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60" t="s">
-        <v>242</v>
+        <v>171</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="F60">
-        <v>42.278043599999997</v>
+        <v>37.427474500000002</v>
       </c>
       <c r="G60">
-        <v>-83.738224099999996</v>
+        <v>-122.169719</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L60" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -5768,11 +6004,11 @@
       <c r="H61" t="s">
         <v>22</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>930</v>
+      <c r="K61" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5800,11 +6036,11 @@
       <c r="I62" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>982</v>
+      <c r="K62" s="6" t="s">
+        <v>978</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5832,8 +6068,8 @@
       <c r="I63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>925</v>
+      <c r="K63" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L63" s="1"/>
     </row>
@@ -5862,36 +6098,44 @@
       <c r="I64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>929</v>
+      <c r="K64" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>259</v>
-      </c>
-      <c r="B65" t="s">
-        <v>260</v>
+        <v>502</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>504</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
       <c r="F65">
-        <v>46.731922500000003</v>
+        <v>37.427474500000002</v>
       </c>
       <c r="G65">
-        <v>-117.1542121</v>
+        <v>-122.169719</v>
       </c>
       <c r="H65" t="s">
         <v>28</v>
       </c>
-      <c r="L65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -5915,11 +6159,11 @@
       <c r="H66" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>929</v>
+      <c r="K66" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,8 +6188,8 @@
       <c r="H67" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>1022</v>
+      <c r="K67" s="6" t="s">
+        <v>1018</v>
       </c>
       <c r="L67" s="1"/>
     </row>
@@ -5977,8 +6221,8 @@
       <c r="J68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>930</v>
+      <c r="K68" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L68" s="1"/>
     </row>
@@ -6007,11 +6251,11 @@
       <c r="I69" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,39 +6286,44 @@
       <c r="J70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>1007</v>
+      <c r="K70" s="6" t="s">
+        <v>1003</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>283</v>
-      </c>
-      <c r="B71" t="s">
-        <v>284</v>
+        <v>742</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>744</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
       <c r="F71">
-        <v>33.948005299999998</v>
+        <v>37.871899200000001</v>
       </c>
       <c r="G71">
-        <v>-83.377322100000001</v>
+        <v>-122.2585399</v>
       </c>
       <c r="H71" t="s">
         <v>28</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L71" s="1"/>
+        <v>745</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -6098,8 +6347,8 @@
       <c r="H72" t="s">
         <v>22</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>930</v>
+      <c r="K72" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L72" s="1"/>
     </row>
@@ -6128,8 +6377,8 @@
       <c r="I73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>925</v>
+      <c r="K73" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L73" s="1"/>
     </row>
@@ -6155,8 +6404,8 @@
       <c r="H74" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="4" t="s">
-        <v>929</v>
+      <c r="K74" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>921</v>
@@ -6190,8 +6439,8 @@
       <c r="J75" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>925</v>
+      <c r="K75" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L75" s="1"/>
     </row>
@@ -6217,32 +6466,38 @@
       <c r="H76" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>930</v>
+      <c r="K76" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>306</v>
-      </c>
-      <c r="B77" t="s">
-        <v>307</v>
+        <v>675</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>677</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
       </c>
       <c r="F77">
-        <v>40.105215899999997</v>
+        <v>38.033552899999997</v>
       </c>
       <c r="G77">
-        <v>-88.225920500000001</v>
+        <v>-78.507977199999999</v>
       </c>
       <c r="H77" t="s">
         <v>28</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L77" s="1"/>
     </row>
@@ -6268,11 +6523,11 @@
       <c r="H78" t="s">
         <v>22</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>930</v>
+      <c r="K78" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6300,8 +6555,8 @@
       <c r="I79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>937</v>
+      <c r="K79" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>923</v>
@@ -6332,11 +6587,11 @@
       <c r="I80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>929</v>
+      <c r="K80" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,8 +6622,8 @@
       <c r="J81" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>930</v>
+      <c r="K81" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L81" s="1"/>
     </row>
@@ -6400,8 +6655,8 @@
       <c r="J82" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K82" s="4" t="s">
-        <v>1000</v>
+      <c r="K82" s="6" t="s">
+        <v>996</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>915</v>
@@ -6435,11 +6690,11 @@
       <c r="J83" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>993</v>
+      <c r="K83" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6470,32 +6725,38 @@
       <c r="J84" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>979</v>
+      <c r="K84" s="6" t="s">
+        <v>975</v>
       </c>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>335</v>
-      </c>
-      <c r="B85" t="s">
-        <v>336</v>
+        <v>700</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="C85" t="s">
-        <v>337</v>
+        <v>702</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="F85">
-        <v>40.7982133</v>
+        <v>38.536048000000001</v>
       </c>
       <c r="G85">
-        <v>-77.859908399999995</v>
+        <v>-121.749286</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L85" s="1"/>
     </row>
@@ -6524,11 +6785,11 @@
       <c r="I86" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K86" s="4" t="s">
-        <v>993</v>
+      <c r="K86" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6556,11 +6817,11 @@
       <c r="I87" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6585,7 +6846,7 @@
       <c r="H88" t="s">
         <v>28</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="K88" s="6" t="s">
         <v>916</v>
       </c>
       <c r="L88" s="1" t="s">
@@ -6620,7 +6881,7 @@
       <c r="J89" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K89" s="6" t="s">
         <v>918</v>
       </c>
       <c r="L89" s="5" t="s">
@@ -6629,49 +6890,66 @@
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>353</v>
-      </c>
-      <c r="B90" t="s">
-        <v>354</v>
+        <v>174</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
       </c>
       <c r="F90">
-        <v>40.007436300000002</v>
+        <v>39.138053200000002</v>
       </c>
       <c r="G90">
-        <v>-105.26864809999999</v>
+        <v>-77.220833900000002</v>
       </c>
       <c r="H90" t="s">
         <v>22</v>
       </c>
-      <c r="L90" s="1"/>
+      <c r="I90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>355</v>
-      </c>
-      <c r="B91" t="s">
-        <v>356</v>
+        <v>611</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>613</v>
       </c>
       <c r="D91" t="s">
         <v>27</v>
       </c>
       <c r="F91">
-        <v>42.377002900000001</v>
+        <v>39.138053200000002</v>
       </c>
       <c r="G91">
-        <v>-71.116660100000004</v>
+        <v>-77.220833900000002</v>
       </c>
       <c r="H91" t="s">
         <v>28</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>991</v>
       </c>
       <c r="L91" s="1"/>
     </row>
@@ -6697,11 +6975,11 @@
       <c r="H92" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="4" t="s">
-        <v>949</v>
+      <c r="K92" s="6" t="s">
+        <v>948</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>950</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6732,11 +7010,11 @@
       <c r="J93" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>929</v>
+      <c r="K93" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6761,37 +7039,40 @@
       <c r="H94" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>369</v>
-      </c>
-      <c r="B95" t="s">
-        <v>370</v>
+        <v>140</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
       </c>
       <c r="F95">
-        <v>40.007436300000002</v>
+        <v>39.7510136</v>
       </c>
       <c r="G95">
-        <v>-105.26864809999999</v>
+        <v>-105.2225705</v>
       </c>
       <c r="H95" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>371</v>
+        <v>143</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L95" s="1"/>
     </row>
@@ -6820,88 +7101,102 @@
       <c r="J96" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K96" s="4" t="s">
-        <v>939</v>
+      <c r="K96" s="6" t="s">
+        <v>938</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>376</v>
-      </c>
-      <c r="B97" t="s">
-        <v>377</v>
+        <v>24</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
       </c>
       <c r="F97">
-        <v>42.377002900000001</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G97">
-        <v>-71.116660100000004</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H97" t="s">
         <v>28</v>
       </c>
-      <c r="L97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="98" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>378</v>
-      </c>
-      <c r="B98" t="s">
-        <v>379</v>
+        <v>73</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
       </c>
       <c r="F98">
-        <v>36.885610399999997</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G98">
-        <v>-76.306777699999998</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H98" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>382</v>
+        <v>75</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>383</v>
-      </c>
-      <c r="B99" t="s">
-        <v>384</v>
+        <v>95</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
       </c>
       <c r="F99">
-        <v>30.2849185</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G99">
-        <v>-97.734056699999996</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H99" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L99" s="1"/>
     </row>
@@ -6927,19 +7222,19 @@
       <c r="H100" t="s">
         <v>28</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>389</v>
-      </c>
-      <c r="B101" t="s">
-        <v>390</v>
+        <v>194</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C101" t="s">
         <v>31</v>
@@ -6954,10 +7249,13 @@
         <v>-105.26864809999999</v>
       </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>391</v>
+        <v>196</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="L101" s="1"/>
     </row>
@@ -6983,8 +7281,8 @@
       <c r="H102" t="s">
         <v>28</v>
       </c>
-      <c r="K102" s="4" t="s">
-        <v>980</v>
+      <c r="K102" s="6" t="s">
+        <v>976</v>
       </c>
       <c r="L102" s="1"/>
     </row>
@@ -7010,11 +7308,11 @@
       <c r="H103" t="s">
         <v>22</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>930</v>
+      <c r="K103" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7042,8 +7340,8 @@
       <c r="I104" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>937</v>
+      <c r="K104" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>923</v>
@@ -7051,25 +7349,31 @@
     </row>
     <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>399</v>
-      </c>
-      <c r="B105" t="s">
-        <v>400</v>
+        <v>201</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>401</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
       <c r="F105">
-        <v>45.7529003</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G105">
-        <v>-94.222328300000001</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H105" t="s">
         <v>28</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L105" s="1"/>
     </row>
@@ -7095,11 +7399,11 @@
       <c r="H106" t="s">
         <v>22</v>
       </c>
-      <c r="K106" s="4" t="s">
-        <v>930</v>
+      <c r="K106" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -7130,11 +7434,11 @@
       <c r="J107" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>937</v>
+      <c r="K107" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7159,8 +7463,8 @@
       <c r="H108" t="s">
         <v>28</v>
       </c>
-      <c r="K108" s="4" t="s">
-        <v>974</v>
+      <c r="K108" s="6" t="s">
+        <v>970</v>
       </c>
       <c r="L108" s="1"/>
     </row>
@@ -7192,37 +7496,37 @@
       <c r="J109" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K109" s="4" t="s">
-        <v>1008</v>
+      <c r="K109" s="6" t="s">
+        <v>1004</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>415</v>
-      </c>
-      <c r="B110" t="s">
-        <v>416</v>
+        <v>353</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="C110" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
       </c>
       <c r="F110">
-        <v>34.366495100000002</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G110">
-        <v>-89.519248399999995</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H110" t="s">
         <v>22</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>417</v>
+      <c r="K110" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L110" s="1"/>
     </row>
@@ -7254,8 +7558,8 @@
       <c r="J111" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K111" s="4" t="s">
-        <v>1019</v>
+      <c r="K111" s="6" t="s">
+        <v>1015</v>
       </c>
       <c r="L111" s="1"/>
     </row>
@@ -7284,8 +7588,8 @@
       <c r="I112" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K112" s="4" t="s">
-        <v>929</v>
+      <c r="K112" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L112" s="1"/>
     </row>
@@ -7317,11 +7621,11 @@
       <c r="J113" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K113" s="4" t="s">
-        <v>929</v>
+      <c r="K113" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7352,11 +7656,11 @@
       <c r="J114" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>929</v>
+      <c r="K114" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7384,12 +7688,12 @@
       <c r="I115" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>979</v>
+      <c r="K115" s="6" t="s">
+        <v>975</v>
       </c>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>442</v>
       </c>
@@ -7417,19 +7721,19 @@
       <c r="J116" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K116" s="4" t="s">
-        <v>929</v>
+      <c r="K116" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>447</v>
-      </c>
-      <c r="B117" t="s">
-        <v>448</v>
+        <v>369</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -7447,7 +7751,10 @@
         <v>28</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>449</v>
+        <v>371</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L117" s="1"/>
     </row>
@@ -7476,36 +7783,44 @@
       <c r="I118" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K118" s="4" t="s">
-        <v>929</v>
+      <c r="K118" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>455</v>
-      </c>
-      <c r="B119" t="s">
-        <v>456</v>
+        <v>389</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="C119" t="s">
-        <v>457</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
       </c>
       <c r="F119">
-        <v>42.360090999999997</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G119">
-        <v>-71.094160000000002</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H119" t="s">
-        <v>28</v>
-      </c>
-      <c r="L119" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -7532,37 +7847,40 @@
       <c r="I120" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="L120" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>461</v>
-      </c>
-      <c r="B121" t="s">
-        <v>462</v>
+        <v>447</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="C121" t="s">
-        <v>401</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
       </c>
       <c r="F121">
-        <v>45.7529003</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G121">
-        <v>-94.222328300000001</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H121" t="s">
         <v>28</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L121" s="1"/>
     </row>
@@ -7594,11 +7912,11 @@
       <c r="J122" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K122" s="4" t="s">
-        <v>930</v>
+      <c r="K122" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7623,37 +7941,42 @@
       <c r="H123" t="s">
         <v>28</v>
       </c>
-      <c r="K123" s="4" t="s">
-        <v>925</v>
+      <c r="K123" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>470</v>
-      </c>
-      <c r="B124" t="s">
-        <v>471</v>
+        <v>506</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="C124" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
       </c>
       <c r="F124">
-        <v>44.935970900000001</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G124">
-        <v>-123.03185980000001</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H124" t="s">
         <v>28</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="L124" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -7677,8 +8000,8 @@
       <c r="H125" t="s">
         <v>28</v>
       </c>
-      <c r="K125" s="4" t="s">
-        <v>1016</v>
+      <c r="K125" s="6" t="s">
+        <v>1012</v>
       </c>
       <c r="L125" s="1"/>
     </row>
@@ -7707,8 +8030,8 @@
       <c r="I126" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>930</v>
+      <c r="K126" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L126" s="1"/>
     </row>
@@ -7734,8 +8057,8 @@
       <c r="H127" t="s">
         <v>28</v>
       </c>
-      <c r="K127" s="4" t="s">
-        <v>995</v>
+      <c r="K127" s="6" t="s">
+        <v>991</v>
       </c>
       <c r="L127" s="1"/>
     </row>
@@ -7764,11 +8087,11 @@
       <c r="I128" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K128" s="4" t="s">
-        <v>929</v>
+      <c r="K128" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -7796,11 +8119,11 @@
       <c r="J129" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K129" s="4" t="s">
-        <v>929</v>
+      <c r="K129" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7825,8 +8148,8 @@
       <c r="H130" t="s">
         <v>28</v>
       </c>
-      <c r="K130" s="4" t="s">
-        <v>929</v>
+      <c r="K130" s="6" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7854,37 +8177,40 @@
       <c r="I131" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>929</v>
+      <c r="K131" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>498</v>
-      </c>
-      <c r="B132" t="s">
-        <v>499</v>
+        <v>563</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="D132" t="s">
         <v>27</v>
       </c>
       <c r="F132">
-        <v>42.278043599999997</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G132">
-        <v>-83.738224099999996</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H132" t="s">
         <v>28</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L132" s="1"/>
     </row>
@@ -7910,46 +8236,49 @@
       <c r="H133" t="s">
         <v>28</v>
       </c>
-      <c r="K133" s="4" t="s">
-        <v>993</v>
+      <c r="K133" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>502</v>
-      </c>
-      <c r="B134" t="s">
-        <v>503</v>
+        <v>608</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="C134" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
       <c r="F134">
-        <v>37.427474500000002</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G134">
-        <v>-122.169719</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H134" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>505</v>
+        <v>610</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>506</v>
-      </c>
-      <c r="B135" t="s">
-        <v>507</v>
+        <v>662</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="C135" t="s">
         <v>31</v>
@@ -7964,64 +8293,72 @@
         <v>-105.26864809999999</v>
       </c>
       <c r="H135" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>508</v>
+        <v>664</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>509</v>
-      </c>
-      <c r="B136" t="s">
-        <v>510</v>
+        <v>783</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C136" t="s">
-        <v>511</v>
+        <v>31</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
       </c>
       <c r="F136">
-        <v>36.127023600000001</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G136">
-        <v>-97.073722200000006</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H136" t="s">
         <v>28</v>
       </c>
-      <c r="L136" s="1"/>
+      <c r="I136" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="137" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>512</v>
-      </c>
-      <c r="B137" t="s">
-        <v>513</v>
+        <v>855</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="C137" t="s">
-        <v>514</v>
+        <v>31</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
       </c>
       <c r="F137">
-        <v>44.105721600000003</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G137">
-        <v>-70.202186499999996</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H137" t="s">
         <v>28</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>516</v>
+      <c r="K137" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L137" s="1"/>
     </row>
@@ -8047,8 +8384,8 @@
       <c r="H138" t="s">
         <v>28</v>
       </c>
-      <c r="K138" s="4" t="s">
-        <v>957</v>
+      <c r="K138" s="6" t="s">
+        <v>955</v>
       </c>
       <c r="L138" s="1"/>
     </row>
@@ -8080,40 +8417,42 @@
       <c r="J139" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K139" s="4" t="s">
-        <v>930</v>
+      <c r="K139" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>524</v>
-      </c>
-      <c r="B140" t="s">
-        <v>525</v>
+        <v>871</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>872</v>
       </c>
       <c r="C140" t="s">
-        <v>526</v>
+        <v>31</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
       </c>
       <c r="F140">
-        <v>34.201308099999999</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G140">
-        <v>-118.1713944</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H140" t="s">
         <v>28</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="L140" s="1"/>
+        <v>873</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="141" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -8143,11 +8482,11 @@
       <c r="J141" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K141" s="4" t="s">
-        <v>954</v>
+      <c r="K141" s="6" t="s">
+        <v>952</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -8175,8 +8514,8 @@
       <c r="I142" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K142" s="4" t="s">
-        <v>925</v>
+      <c r="K142" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L142" s="1"/>
     </row>
@@ -8205,11 +8544,11 @@
       <c r="I143" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K143" s="4" t="s">
-        <v>929</v>
+      <c r="K143" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8237,8 +8576,8 @@
       <c r="I144" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="K144" s="4" t="s">
-        <v>930</v>
+      <c r="K144" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L144" s="1"/>
     </row>
@@ -8270,11 +8609,11 @@
       <c r="J145" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="K145" s="4" t="s">
-        <v>980</v>
+      <c r="K145" s="6" t="s">
+        <v>976</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8302,11 +8641,11 @@
       <c r="I146" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K146" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="L146" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
@@ -8334,11 +8673,11 @@
       <c r="I147" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="K147" s="4" t="s">
-        <v>930</v>
+      <c r="K147" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8363,35 +8702,35 @@
       <c r="H148" t="s">
         <v>28</v>
       </c>
-      <c r="K148" s="4" t="s">
-        <v>980</v>
+      <c r="K148" s="6" t="s">
+        <v>976</v>
       </c>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>563</v>
-      </c>
-      <c r="B149" t="s">
-        <v>448</v>
+        <v>216</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
       </c>
       <c r="F149">
-        <v>40.007436300000002</v>
+        <v>40.105215899999997</v>
       </c>
       <c r="G149">
-        <v>-105.26864809999999</v>
+        <v>-88.225920500000001</v>
       </c>
       <c r="H149" t="s">
         <v>28</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>564</v>
+      <c r="K149" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="L149" s="1"/>
     </row>
@@ -8420,12 +8759,12 @@
       <c r="I150" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="K150" s="4" t="s">
-        <v>930</v>
+      <c r="K150" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>570</v>
       </c>
@@ -8450,34 +8789,37 @@
       <c r="I151" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K151" s="4" t="s">
-        <v>929</v>
+      <c r="K151" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>574</v>
-      </c>
-      <c r="B152" t="s">
-        <v>575</v>
+        <v>306</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C152" t="s">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="D152" t="s">
         <v>27</v>
       </c>
       <c r="F152">
-        <v>40.7982133</v>
+        <v>40.105215899999997</v>
       </c>
       <c r="G152">
-        <v>-77.859908399999995</v>
+        <v>-88.225920500000001</v>
       </c>
       <c r="H152" t="s">
         <v>28</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L152" s="1"/>
     </row>
@@ -8503,8 +8845,8 @@
       <c r="H153" t="s">
         <v>28</v>
       </c>
-      <c r="K153" s="4" t="s">
-        <v>929</v>
+      <c r="K153" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L153" s="1"/>
     </row>
@@ -8533,8 +8875,8 @@
       <c r="I154" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K154" s="4" t="s">
-        <v>925</v>
+      <c r="K154" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L154" s="1"/>
     </row>
@@ -8563,11 +8905,11 @@
       <c r="I155" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="K155" s="4" t="s">
-        <v>929</v>
+      <c r="K155" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8595,11 +8937,11 @@
       <c r="I156" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="K156" s="4" t="s">
-        <v>937</v>
+      <c r="K156" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8627,8 +8969,8 @@
       <c r="I157" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="K157" s="4" t="s">
-        <v>930</v>
+      <c r="K157" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L157" s="1"/>
     </row>
@@ -8657,8 +8999,8 @@
       <c r="J158" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="K158" s="4" t="s">
-        <v>995</v>
+      <c r="K158" s="6" t="s">
+        <v>991</v>
       </c>
       <c r="L158" s="5" t="s">
         <v>919</v>
@@ -8692,8 +9034,8 @@
       <c r="J159" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="K159" s="4" t="s">
-        <v>930</v>
+      <c r="K159" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>922</v>
@@ -8727,62 +9069,62 @@
       <c r="J160" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K160" s="4" t="s">
-        <v>986</v>
+      <c r="K160" s="6" t="s">
+        <v>982</v>
       </c>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>608</v>
-      </c>
-      <c r="B161" t="s">
-        <v>609</v>
+        <v>874</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>875</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>876</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
       </c>
       <c r="F161">
-        <v>40.007436300000002</v>
+        <v>40.423705400000003</v>
       </c>
       <c r="G161">
-        <v>-105.26864809999999</v>
+        <v>-86.921194600000007</v>
       </c>
       <c r="H161" t="s">
-        <v>16</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>610</v>
+        <v>28</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L161" s="1"/>
     </row>
     <row r="162" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>611</v>
-      </c>
-      <c r="B162" t="s">
-        <v>612</v>
+        <v>335</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C162" t="s">
-        <v>613</v>
+        <v>337</v>
       </c>
       <c r="D162" t="s">
         <v>27</v>
       </c>
       <c r="F162">
-        <v>39.138053200000002</v>
+        <v>40.7982133</v>
       </c>
       <c r="G162">
-        <v>-77.220833900000002</v>
+        <v>-77.859908399999995</v>
       </c>
       <c r="H162" t="s">
         <v>28</v>
       </c>
-      <c r="J162" s="1" t="s">
-        <v>614</v>
+      <c r="K162" s="6" t="s">
+        <v>1039</v>
       </c>
       <c r="L162" s="1"/>
     </row>
@@ -8814,11 +9156,11 @@
       <c r="J163" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>982</v>
+      <c r="K163" s="6" t="s">
+        <v>978</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8843,8 +9185,8 @@
       <c r="H164" t="s">
         <v>28</v>
       </c>
-      <c r="K164" s="4" t="s">
-        <v>929</v>
+      <c r="K164" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>921</v>
@@ -8875,91 +9217,98 @@
       <c r="I165" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>937</v>
+      <c r="K165" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>924</v>
+        <v>965</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>627</v>
-      </c>
-      <c r="B166" t="s">
-        <v>628</v>
+        <v>574</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="C166" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="D166" t="s">
         <v>27</v>
       </c>
       <c r="F166">
-        <v>45.7529003</v>
+        <v>40.7982133</v>
       </c>
       <c r="G166">
-        <v>-94.222328300000001</v>
+        <v>-77.859908399999995</v>
       </c>
       <c r="H166" t="s">
-        <v>22</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="L166" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="167" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>630</v>
-      </c>
-      <c r="B167" t="s">
-        <v>631</v>
+        <v>839</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>840</v>
       </c>
       <c r="C167" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
       </c>
       <c r="F167">
-        <v>42.278043599999997</v>
+        <v>40.7982133</v>
       </c>
       <c r="G167">
-        <v>-83.738224099999996</v>
+        <v>-77.859908399999995</v>
       </c>
       <c r="H167" t="s">
         <v>28</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="L167" s="1"/>
+        <v>841</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>633</v>
-      </c>
-      <c r="B168" t="s">
-        <v>634</v>
+        <v>861</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="C168" t="s">
-        <v>635</v>
+        <v>863</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
       <c r="F168">
-        <v>30.2849185</v>
+        <v>40.8075355</v>
       </c>
       <c r="G168">
-        <v>-97.734056699999996</v>
+        <v>-73.962572699999996</v>
       </c>
       <c r="H168" t="s">
         <v>28</v>
       </c>
-      <c r="I168" s="1" t="s">
-        <v>636</v>
+      <c r="K168" s="6" t="s">
+        <v>1042</v>
       </c>
       <c r="L168" s="1"/>
     </row>
@@ -8991,35 +9340,35 @@
       <c r="J169" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K169" s="4" t="s">
-        <v>966</v>
+      <c r="K169" s="6" t="s">
+        <v>964</v>
       </c>
       <c r="L169" s="1"/>
     </row>
     <row r="170" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>642</v>
-      </c>
-      <c r="B170" t="s">
-        <v>643</v>
+        <v>885</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>886</v>
       </c>
       <c r="C170" t="s">
-        <v>151</v>
+        <v>863</v>
       </c>
       <c r="D170" t="s">
         <v>27</v>
       </c>
       <c r="F170">
-        <v>33.775617799999999</v>
+        <v>40.8075355</v>
       </c>
       <c r="G170">
-        <v>-84.396285000000006</v>
+        <v>-73.962572699999996</v>
       </c>
       <c r="H170" t="s">
         <v>28</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>644</v>
+      <c r="K170" s="6" t="s">
+        <v>1043</v>
       </c>
       <c r="L170" s="1"/>
     </row>
@@ -9051,8 +9400,8 @@
       <c r="J171" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="K171" s="4" t="s">
-        <v>1000</v>
+      <c r="K171" s="6" t="s">
+        <v>996</v>
       </c>
       <c r="L171" s="1"/>
     </row>
@@ -9084,11 +9433,11 @@
       <c r="J172" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="K172" s="4" t="s">
-        <v>993</v>
+      <c r="K172" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9113,8 +9462,8 @@
       <c r="H173" t="s">
         <v>28</v>
       </c>
-      <c r="K173" s="4" t="s">
-        <v>925</v>
+      <c r="K173" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L173" s="1"/>
     </row>
@@ -9143,37 +9492,40 @@
       <c r="I174" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="K174" s="4" t="s">
-        <v>929</v>
+      <c r="K174" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>662</v>
-      </c>
-      <c r="B175" t="s">
-        <v>663</v>
+        <v>715</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>717</v>
       </c>
       <c r="D175" t="s">
         <v>27</v>
       </c>
       <c r="F175">
-        <v>40.007436300000002</v>
+        <v>40.912376100000003</v>
       </c>
       <c r="G175">
-        <v>-105.26864809999999</v>
+        <v>-73.123388899999995</v>
       </c>
       <c r="H175" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>664</v>
+        <v>718</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L175" s="1"/>
     </row>
@@ -9205,11 +9557,11 @@
       <c r="J176" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="K176" s="4" t="s">
+      <c r="K176" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -9237,11 +9589,11 @@
       <c r="J177" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="K177" s="4" t="s">
-        <v>929</v>
+      <c r="K177" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9266,37 +9618,45 @@
       <c r="H178" t="s">
         <v>22</v>
       </c>
-      <c r="K178" s="4" t="s">
-        <v>930</v>
+      <c r="K178" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L178" s="1"/>
     </row>
     <row r="179" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>675</v>
-      </c>
-      <c r="B179" t="s">
-        <v>676</v>
+        <v>219</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C179" t="s">
-        <v>677</v>
+        <v>221</v>
       </c>
       <c r="D179" t="s">
         <v>27</v>
       </c>
       <c r="F179">
-        <v>38.033552899999997</v>
+        <v>41.316324399999999</v>
       </c>
       <c r="G179">
-        <v>-78.507977199999999</v>
+        <v>-72.922343100000006</v>
       </c>
       <c r="H179" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L179" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -9320,35 +9680,38 @@
       <c r="H180" t="s">
         <v>22</v>
       </c>
-      <c r="K180" s="4" t="s">
-        <v>930</v>
+      <c r="K180" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>682</v>
-      </c>
-      <c r="B181" t="s">
-        <v>683</v>
+        <v>167</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C181" t="s">
-        <v>684</v>
+        <v>169</v>
       </c>
       <c r="D181" t="s">
         <v>27</v>
       </c>
       <c r="F181">
-        <v>43.076591999999998</v>
+        <v>41.788607900000002</v>
       </c>
       <c r="G181">
-        <v>-89.412487499999997</v>
+        <v>-87.5987133</v>
       </c>
       <c r="H181" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>685</v>
+        <v>170</v>
+      </c>
+      <c r="K181" s="6" t="s">
+        <v>1046</v>
       </c>
       <c r="L181" s="1"/>
     </row>
@@ -9380,11 +9743,11 @@
       <c r="J182" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="K182" s="4" t="s">
-        <v>929</v>
+      <c r="K182" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9412,11 +9775,11 @@
       <c r="J183" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="K183" s="4" t="s">
-        <v>993</v>
+      <c r="K183" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -9444,11 +9807,11 @@
       <c r="I184" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="K184" s="4" t="s">
-        <v>930</v>
+      <c r="K184" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9473,64 +9836,72 @@
       <c r="H185" t="s">
         <v>22</v>
       </c>
-      <c r="K185" s="4" t="s">
-        <v>930</v>
+      <c r="K185" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L185" s="1"/>
     </row>
     <row r="186" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>700</v>
-      </c>
-      <c r="B186" t="s">
-        <v>701</v>
+        <v>241</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C186" t="s">
-        <v>702</v>
+        <v>243</v>
       </c>
       <c r="D186" t="s">
         <v>27</v>
       </c>
       <c r="F186">
-        <v>38.536048000000001</v>
+        <v>42.278043599999997</v>
       </c>
       <c r="G186">
-        <v>-121.749286</v>
+        <v>-83.738224099999996</v>
       </c>
       <c r="H186" t="s">
         <v>22</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>703</v>
+        <v>244</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L186" s="1"/>
     </row>
     <row r="187" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>704</v>
-      </c>
-      <c r="B187" t="s">
-        <v>705</v>
+        <v>498</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="C187" t="s">
-        <v>706</v>
+        <v>243</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
       </c>
       <c r="F187">
-        <v>37.228384300000002</v>
+        <v>42.278043599999997</v>
       </c>
       <c r="G187">
-        <v>-80.423416700000004</v>
+        <v>-83.738224099999996</v>
       </c>
       <c r="H187" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="L187" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="188" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -9557,8 +9928,8 @@
       <c r="I188" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="K188" s="4" t="s">
-        <v>930</v>
+      <c r="K188" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L188" s="1"/>
     </row>
@@ -9587,35 +9958,38 @@
       <c r="I189" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K189" s="4" t="s">
-        <v>951</v>
+      <c r="K189" s="6" t="s">
+        <v>949</v>
       </c>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>715</v>
-      </c>
-      <c r="B190" t="s">
-        <v>716</v>
+        <v>630</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="C190" t="s">
-        <v>717</v>
+        <v>243</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
       </c>
       <c r="F190">
-        <v>40.912376100000003</v>
+        <v>42.278043599999997</v>
       </c>
       <c r="G190">
-        <v>-73.123388899999995</v>
+        <v>-83.738224099999996</v>
       </c>
       <c r="H190" t="s">
         <v>28</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>718</v>
+        <v>632</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L190" s="1"/>
     </row>
@@ -9644,11 +10018,11 @@
       <c r="I191" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="K191" s="4" t="s">
-        <v>953</v>
+      <c r="K191" s="6" t="s">
+        <v>951</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9676,40 +10050,37 @@
       <c r="J192" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="K192" s="4" t="s">
-        <v>985</v>
+      <c r="K192" s="6" t="s">
+        <v>981</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>726</v>
-      </c>
-      <c r="B193" t="s">
-        <v>727</v>
+        <v>455</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="C193" t="s">
-        <v>728</v>
+        <v>457</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
       </c>
       <c r="F193">
-        <v>35.205893600000003</v>
+        <v>42.360090999999997</v>
       </c>
       <c r="G193">
-        <v>-97.445713699999999</v>
+        <v>-71.094160000000002</v>
       </c>
       <c r="H193" t="s">
-        <v>16</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>730</v>
+        <v>28</v>
+      </c>
+      <c r="K193" s="6" t="s">
+        <v>1047</v>
       </c>
       <c r="L193" s="1"/>
     </row>
@@ -9738,8 +10109,8 @@
       <c r="I194" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="K194" s="4" t="s">
-        <v>930</v>
+      <c r="K194" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L194" s="1"/>
     </row>
@@ -9765,11 +10136,11 @@
       <c r="H195" t="s">
         <v>28</v>
       </c>
-      <c r="K195" s="4" t="s">
-        <v>939</v>
+      <c r="K195" s="6" t="s">
+        <v>938</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9797,37 +10168,37 @@
       <c r="I196" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="K196" s="4" t="s">
-        <v>930</v>
+      <c r="K196" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>742</v>
-      </c>
-      <c r="B197" t="s">
-        <v>743</v>
+        <v>819</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>820</v>
       </c>
       <c r="C197" t="s">
-        <v>744</v>
+        <v>457</v>
       </c>
       <c r="D197" t="s">
         <v>27</v>
       </c>
       <c r="F197">
-        <v>37.871899200000001</v>
+        <v>42.360090999999997</v>
       </c>
       <c r="G197">
-        <v>-122.2585399</v>
+        <v>-71.094160000000002</v>
       </c>
       <c r="H197" t="s">
         <v>28</v>
       </c>
-      <c r="I197" s="1" t="s">
-        <v>745</v>
+      <c r="K197" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L197" s="1"/>
     </row>
@@ -9859,8 +10230,8 @@
       <c r="J198" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="K198" s="4" t="s">
-        <v>925</v>
+      <c r="K198" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L198" s="1"/>
     </row>
@@ -9886,8 +10257,8 @@
       <c r="H199" t="s">
         <v>22</v>
       </c>
-      <c r="K199" s="4" t="s">
-        <v>976</v>
+      <c r="K199" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="L199" s="1"/>
     </row>
@@ -9919,34 +10290,37 @@
       <c r="J200" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="K200" s="4" t="s">
-        <v>930</v>
+      <c r="K200" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>757</v>
-      </c>
-      <c r="B201" t="s">
-        <v>758</v>
+        <v>904</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>905</v>
       </c>
       <c r="C201" t="s">
-        <v>759</v>
+        <v>906</v>
       </c>
       <c r="D201" t="s">
         <v>27</v>
       </c>
       <c r="F201">
-        <v>47.655335100000002</v>
+        <v>42.360090999999997</v>
       </c>
       <c r="G201">
-        <v>-122.3035199</v>
+        <v>-71.094160000000002</v>
       </c>
       <c r="H201" t="s">
         <v>28</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="L201" s="1"/>
     </row>
@@ -9975,8 +10349,8 @@
       <c r="I202" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="K202" s="4" t="s">
-        <v>929</v>
+      <c r="K202" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L202" s="1" t="s">
         <v>921</v>
@@ -10007,8 +10381,8 @@
       <c r="I203" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="K203" s="4" t="s">
-        <v>1013</v>
+      <c r="K203" s="6" t="s">
+        <v>1009</v>
       </c>
       <c r="L203" s="1"/>
     </row>
@@ -10037,8 +10411,8 @@
       <c r="I204" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="K204" s="4" t="s">
-        <v>1021</v>
+      <c r="K204" s="6" t="s">
+        <v>1017</v>
       </c>
       <c r="L204" s="1"/>
     </row>
@@ -10064,8 +10438,8 @@
       <c r="H205" t="s">
         <v>22</v>
       </c>
-      <c r="K205" s="4" t="s">
-        <v>930</v>
+      <c r="K205" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L205" s="1"/>
     </row>
@@ -10097,59 +10471,67 @@
       <c r="J206" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="K206" s="4" t="s">
-        <v>930</v>
+      <c r="K206" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L206" s="1"/>
     </row>
     <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>780</v>
-      </c>
-      <c r="B207" t="s">
-        <v>781</v>
+        <v>237</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="C207" t="s">
-        <v>782</v>
+        <v>239</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
       </c>
       <c r="F207">
-        <v>36.0014258</v>
+        <v>42.377002900000001</v>
       </c>
       <c r="G207">
-        <v>-78.938228600000002</v>
+        <v>-71.116660100000004</v>
       </c>
       <c r="H207" t="s">
         <v>28</v>
       </c>
-      <c r="L207" s="1"/>
-    </row>
-    <row r="208" spans="1:12" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I207" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K207" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>783</v>
-      </c>
-      <c r="B208" t="s">
-        <v>784</v>
+        <v>355</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
       </c>
       <c r="F208">
-        <v>40.007436300000002</v>
+        <v>42.377002900000001</v>
       </c>
       <c r="G208">
-        <v>-105.26864809999999</v>
+        <v>-71.116660100000004</v>
       </c>
       <c r="H208" t="s">
         <v>28</v>
       </c>
-      <c r="I208" s="1" t="s">
-        <v>785</v>
+      <c r="K208" s="6" t="s">
+        <v>1051</v>
       </c>
       <c r="L208" s="1"/>
     </row>
@@ -10178,7 +10560,7 @@
       <c r="I209" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="K209" s="4" t="s">
+      <c r="K209" s="6" t="s">
         <v>916</v>
       </c>
       <c r="L209" s="1"/>
@@ -10211,11 +10593,11 @@
       <c r="J210" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="K210" s="4" t="s">
-        <v>927</v>
+      <c r="K210" s="6" t="s">
+        <v>926</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -10243,11 +10625,11 @@
       <c r="I211" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="K211" s="4" t="s">
-        <v>1012</v>
+      <c r="K211" s="6" t="s">
+        <v>1008</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10275,8 +10657,8 @@
       <c r="I212" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="K212" s="4" t="s">
-        <v>929</v>
+      <c r="K212" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L212" s="1"/>
     </row>
@@ -10308,8 +10690,8 @@
       <c r="J213" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="K213" s="4" t="s">
-        <v>930</v>
+      <c r="K213" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L213" s="1"/>
     </row>
@@ -10338,11 +10720,11 @@
       <c r="J214" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="K214" s="4" t="s">
-        <v>941</v>
+      <c r="K214" s="6" t="s">
+        <v>940</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -10370,11 +10752,11 @@
       <c r="I215" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="K215" s="4" t="s">
-        <v>964</v>
+      <c r="K215" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10402,11 +10784,11 @@
       <c r="J216" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="K216" s="4" t="s">
-        <v>939</v>
+      <c r="K216" s="6" t="s">
+        <v>938</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10431,8 +10813,8 @@
       <c r="H217" t="s">
         <v>28</v>
       </c>
-      <c r="K217" s="4" t="s">
-        <v>925</v>
+      <c r="K217" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L217" s="1"/>
     </row>
@@ -10458,32 +10840,35 @@
       <c r="H218" t="s">
         <v>28</v>
       </c>
-      <c r="K218" s="4" t="s">
-        <v>941</v>
+      <c r="K218" s="6" t="s">
+        <v>940</v>
       </c>
       <c r="L218" s="1"/>
     </row>
     <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>819</v>
-      </c>
-      <c r="B219" t="s">
-        <v>820</v>
+        <v>376</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="C219" t="s">
-        <v>457</v>
+        <v>357</v>
       </c>
       <c r="D219" t="s">
         <v>27</v>
       </c>
       <c r="F219">
-        <v>42.360090999999997</v>
+        <v>42.377002900000001</v>
       </c>
       <c r="G219">
-        <v>-71.094160000000002</v>
+        <v>-71.116660100000004</v>
       </c>
       <c r="H219" t="s">
         <v>28</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>991</v>
       </c>
       <c r="L219" s="1"/>
     </row>
@@ -10491,7 +10876,7 @@
       <c r="A220" t="s">
         <v>821</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C220" t="s">
@@ -10509,7 +10894,12 @@
       <c r="H220" t="s">
         <v>28</v>
       </c>
-      <c r="L220" s="1"/>
+      <c r="K220" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="221" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -10536,11 +10926,11 @@
       <c r="I221" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="K221" s="4" t="s">
+      <c r="K221" s="6" t="s">
         <v>916</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10568,11 +10958,11 @@
       <c r="I222" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="K222" s="4" t="s">
-        <v>1003</v>
+      <c r="K222" s="6" t="s">
+        <v>999</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,8 +10990,8 @@
       <c r="I223" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="K223" s="4" t="s">
-        <v>978</v>
+      <c r="K223" s="6" t="s">
+        <v>974</v>
       </c>
       <c r="L223" s="1"/>
     </row>
@@ -10630,35 +11020,38 @@
       <c r="I224" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="K224" s="4" t="s">
-        <v>930</v>
+      <c r="K224" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L224" s="1"/>
     </row>
     <row r="225" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>839</v>
+        <v>682</v>
       </c>
       <c r="B225" t="s">
-        <v>840</v>
+        <v>683</v>
       </c>
       <c r="C225" t="s">
-        <v>337</v>
+        <v>684</v>
       </c>
       <c r="D225" t="s">
         <v>27</v>
       </c>
       <c r="F225">
-        <v>40.7982133</v>
+        <v>43.076591999999998</v>
       </c>
       <c r="G225">
-        <v>-77.859908399999995</v>
+        <v>-89.412487499999997</v>
       </c>
       <c r="H225" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>841</v>
+        <v>685</v>
+      </c>
+      <c r="K225" s="6" t="s">
+        <v>1053</v>
       </c>
       <c r="L225" s="1"/>
     </row>
@@ -10684,32 +11077,38 @@
       <c r="H226" t="s">
         <v>28</v>
       </c>
-      <c r="K226" s="4" t="s">
-        <v>982</v>
+      <c r="K226" s="6" t="s">
+        <v>978</v>
       </c>
       <c r="L226" s="1"/>
     </row>
     <row r="227" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>845</v>
-      </c>
-      <c r="B227" t="s">
-        <v>846</v>
+        <v>81</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C227" t="s">
-        <v>847</v>
+        <v>83</v>
       </c>
       <c r="D227" t="s">
         <v>27</v>
       </c>
       <c r="F227">
-        <v>34.413962900000001</v>
+        <v>43.1305531</v>
       </c>
       <c r="G227">
-        <v>-119.848947</v>
+        <v>-77.626003299999994</v>
       </c>
       <c r="H227" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K227" s="6" t="s">
+        <v>1054</v>
       </c>
       <c r="L227" s="1"/>
     </row>
@@ -10738,34 +11137,43 @@
       <c r="J228" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K228" s="4" t="s">
-        <v>987</v>
+      <c r="K228" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>849</v>
-      </c>
-      <c r="B229" t="s">
-        <v>850</v>
+        <v>512</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="C229" t="s">
-        <v>851</v>
+        <v>514</v>
       </c>
       <c r="D229" t="s">
         <v>27</v>
       </c>
       <c r="F229">
-        <v>34.097743000000001</v>
+        <v>44.105721600000003</v>
       </c>
       <c r="G229">
-        <v>-117.711803</v>
+        <v>-70.202186499999996</v>
       </c>
       <c r="H229" t="s">
         <v>28</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K229" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L229" s="1"/>
     </row>
@@ -10791,32 +11199,38 @@
       <c r="H230" t="s">
         <v>28</v>
       </c>
-      <c r="K230" s="4" t="s">
-        <v>925</v>
+      <c r="K230" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="L230" s="1"/>
     </row>
     <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>855</v>
-      </c>
-      <c r="B231" t="s">
-        <v>856</v>
+        <v>184</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C231" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D231" t="s">
         <v>27</v>
       </c>
       <c r="F231">
-        <v>40.007436300000002</v>
+        <v>44.477852800000001</v>
       </c>
       <c r="G231">
-        <v>-105.26864809999999</v>
+        <v>-73.196463699999995</v>
       </c>
       <c r="H231" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K231" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L231" s="1"/>
     </row>
@@ -10848,32 +11262,38 @@
       <c r="J232" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="K232" s="4" t="s">
+      <c r="K232" s="6" t="s">
         <v>916</v>
       </c>
       <c r="L232" s="1"/>
     </row>
     <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>861</v>
-      </c>
-      <c r="B233" t="s">
-        <v>862</v>
+        <v>470</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="C233" t="s">
-        <v>863</v>
+        <v>472</v>
       </c>
       <c r="D233" t="s">
         <v>27</v>
       </c>
       <c r="F233">
-        <v>40.8075355</v>
+        <v>44.935970900000001</v>
       </c>
       <c r="G233">
-        <v>-73.962572699999996</v>
+        <v>-123.03185980000001</v>
       </c>
       <c r="H233" t="s">
         <v>28</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K233" s="6" t="s">
+        <v>996</v>
       </c>
       <c r="L233" s="1"/>
     </row>
@@ -10902,11 +11322,11 @@
       <c r="I234" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="K234" s="4" t="s">
-        <v>929</v>
+      <c r="K234" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -10937,59 +11357,65 @@
       <c r="J235" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K235" s="4" t="s">
-        <v>930</v>
+      <c r="K235" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>871</v>
-      </c>
-      <c r="B236" t="s">
-        <v>872</v>
+        <v>399</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="C236" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="D236" t="s">
         <v>27</v>
       </c>
       <c r="F236">
-        <v>40.007436300000002</v>
+        <v>45.7529003</v>
       </c>
       <c r="G236">
-        <v>-105.26864809999999</v>
+        <v>-94.222328300000001</v>
       </c>
       <c r="H236" t="s">
         <v>28</v>
       </c>
-      <c r="I236" s="1" t="s">
-        <v>873</v>
+      <c r="K236" s="6" t="s">
+        <v>975</v>
       </c>
       <c r="L236" s="1"/>
     </row>
     <row r="237" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>874</v>
-      </c>
-      <c r="B237" t="s">
-        <v>875</v>
+        <v>461</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="C237" t="s">
-        <v>876</v>
+        <v>401</v>
       </c>
       <c r="D237" t="s">
         <v>27</v>
       </c>
       <c r="F237">
-        <v>40.423705400000003</v>
+        <v>45.7529003</v>
       </c>
       <c r="G237">
-        <v>-86.921194600000007</v>
+        <v>-94.222328300000001</v>
       </c>
       <c r="H237" t="s">
         <v>28</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K237" s="6" t="s">
+        <v>916</v>
       </c>
       <c r="L237" s="1"/>
     </row>
@@ -11021,8 +11447,8 @@
       <c r="J238" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="K238" s="4" t="s">
-        <v>930</v>
+      <c r="K238" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L238" s="1"/>
     </row>
@@ -11048,58 +11474,67 @@
       <c r="H239" t="s">
         <v>22</v>
       </c>
-      <c r="K239" s="4" t="s">
-        <v>929</v>
+      <c r="K239" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>885</v>
-      </c>
-      <c r="B240" t="s">
-        <v>886</v>
+        <v>627</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="C240" t="s">
-        <v>863</v>
+        <v>401</v>
       </c>
       <c r="D240" t="s">
         <v>27</v>
       </c>
       <c r="F240">
-        <v>40.8075355</v>
+        <v>45.7529003</v>
       </c>
       <c r="G240">
-        <v>-73.962572699999996</v>
+        <v>-94.222328300000001</v>
       </c>
       <c r="H240" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K240" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L240" s="1"/>
     </row>
     <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>887</v>
-      </c>
-      <c r="B241" t="s">
-        <v>888</v>
+        <v>259</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C241" t="s">
-        <v>889</v>
+        <v>261</v>
       </c>
       <c r="D241" t="s">
         <v>27</v>
       </c>
       <c r="F241">
-        <v>32.9857619</v>
+        <v>46.731922500000003</v>
       </c>
       <c r="G241">
-        <v>-96.750099300000002</v>
+        <v>-117.1542121</v>
       </c>
       <c r="H241" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="K241" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="L241" s="1"/>
     </row>
@@ -11128,11 +11563,11 @@
       <c r="I242" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="K242" s="4" t="s">
-        <v>964</v>
+      <c r="K242" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -11160,8 +11595,8 @@
       <c r="I243" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="K243" s="4" t="s">
-        <v>930</v>
+      <c r="K243" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L243" s="1"/>
     </row>
@@ -11187,8 +11622,8 @@
       <c r="H244" t="s">
         <v>28</v>
       </c>
-      <c r="K244" s="4" t="s">
-        <v>929</v>
+      <c r="K244" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L244" s="1" t="s">
         <v>920</v>
@@ -11219,34 +11654,39 @@
       <c r="J245" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K245" s="4" t="s">
-        <v>930</v>
+      <c r="K245" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="L245" s="1"/>
     </row>
     <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>904</v>
-      </c>
-      <c r="B246" t="s">
-        <v>905</v>
+        <v>757</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>758</v>
       </c>
       <c r="C246" t="s">
-        <v>906</v>
+        <v>759</v>
       </c>
       <c r="D246" t="s">
         <v>27</v>
       </c>
       <c r="F246">
-        <v>42.360090999999997</v>
+        <v>47.655335100000002</v>
       </c>
       <c r="G246">
-        <v>-71.094160000000002</v>
+        <v>-122.3035199</v>
       </c>
       <c r="H246" t="s">
         <v>28</v>
       </c>
-      <c r="L246" s="1"/>
+      <c r="K246" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -11270,11 +11710,11 @@
       <c r="H247" t="s">
         <v>22</v>
       </c>
-      <c r="K247" s="4" t="s">
-        <v>929</v>
+      <c r="K247" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -11300,40 +11740,29 @@
         <v>28</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="K248" s="4" t="s">
-        <v>1000</v>
+      <c r="K248" s="6" t="s">
+        <v>996</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J249" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="K249" s="4">
-        <f>COUNTA(K2:K248)</f>
-        <v>174</v>
-      </c>
-      <c r="L249" s="1"/>
-    </row>
-    <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J250" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="K250" s="4">
-        <f>248-2-COUNTA(K2:K248)</f>
-        <v>72</v>
-      </c>
-      <c r="L250" s="1"/>
+        <v>995</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L250"/>
+  <conditionalFormatting sqref="H2:H248">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Theory"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(K1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B88" r:id="rId1"/>
     <hyperlink ref="B89" r:id="rId2"/>
@@ -11363,7 +11792,7 @@
     <hyperlink ref="B144" r:id="rId26"/>
     <hyperlink ref="B176" r:id="rId27"/>
     <hyperlink ref="B174" r:id="rId28"/>
-    <hyperlink ref="B44" r:id="rId29"/>
+    <hyperlink ref="B4" r:id="rId29"/>
     <hyperlink ref="B53" r:id="rId30"/>
     <hyperlink ref="B96" r:id="rId31"/>
     <hyperlink ref="B103" r:id="rId32"/>
@@ -11503,8 +11932,83 @@
     <hyperlink ref="B139" r:id="rId166"/>
     <hyperlink ref="B213" r:id="rId167"/>
     <hyperlink ref="B238" r:id="rId168"/>
+    <hyperlink ref="B5" r:id="rId169"/>
+    <hyperlink ref="B13" r:id="rId170"/>
+    <hyperlink ref="B15" r:id="rId171"/>
+    <hyperlink ref="B17" r:id="rId172"/>
+    <hyperlink ref="B21" r:id="rId173"/>
+    <hyperlink ref="B24" r:id="rId174"/>
+    <hyperlink ref="B33" r:id="rId175"/>
+    <hyperlink ref="B35" r:id="rId176"/>
+    <hyperlink ref="B40" r:id="rId177"/>
+    <hyperlink ref="B41" r:id="rId178"/>
+    <hyperlink ref="B42" r:id="rId179"/>
+    <hyperlink ref="B44" r:id="rId180"/>
+    <hyperlink ref="B45" r:id="rId181"/>
+    <hyperlink ref="B48" r:id="rId182"/>
+    <hyperlink ref="B50" r:id="rId183"/>
+    <hyperlink ref="B54" r:id="rId184"/>
+    <hyperlink ref="B55" r:id="rId185"/>
+    <hyperlink ref="B59" r:id="rId186"/>
+    <hyperlink ref="B60" r:id="rId187"/>
+    <hyperlink ref="B65" r:id="rId188"/>
+    <hyperlink ref="B71" r:id="rId189"/>
+    <hyperlink ref="B77" r:id="rId190"/>
+    <hyperlink ref="B85" r:id="rId191"/>
+    <hyperlink ref="B90" r:id="rId192"/>
+    <hyperlink ref="B91" r:id="rId193"/>
+    <hyperlink ref="B95" r:id="rId194"/>
+    <hyperlink ref="B97" r:id="rId195"/>
+    <hyperlink ref="B98" r:id="rId196"/>
+    <hyperlink ref="B99" r:id="rId197"/>
+    <hyperlink ref="B101" r:id="rId198"/>
+    <hyperlink ref="B105" r:id="rId199"/>
+    <hyperlink ref="B110" r:id="rId200"/>
+    <hyperlink ref="B117" r:id="rId201"/>
+    <hyperlink ref="B119" r:id="rId202"/>
+    <hyperlink ref="B121" r:id="rId203"/>
+    <hyperlink ref="B124" r:id="rId204"/>
+    <hyperlink ref="B132" r:id="rId205"/>
+    <hyperlink ref="B134" r:id="rId206"/>
+    <hyperlink ref="B135" r:id="rId207"/>
+    <hyperlink ref="B136" r:id="rId208"/>
+    <hyperlink ref="B137" r:id="rId209"/>
+    <hyperlink ref="B140" r:id="rId210"/>
+    <hyperlink ref="B149" r:id="rId211"/>
+    <hyperlink ref="B152" r:id="rId212"/>
+    <hyperlink ref="B161" r:id="rId213"/>
+    <hyperlink ref="B162" r:id="rId214"/>
+    <hyperlink ref="B166" r:id="rId215"/>
+    <hyperlink ref="B167" r:id="rId216"/>
+    <hyperlink ref="B168" r:id="rId217"/>
+    <hyperlink ref="B170" r:id="rId218"/>
+    <hyperlink ref="B175" r:id="rId219"/>
+    <hyperlink ref="B179" r:id="rId220"/>
+    <hyperlink ref="B181" r:id="rId221"/>
+    <hyperlink ref="B186" r:id="rId222"/>
+    <hyperlink ref="B187" r:id="rId223"/>
+    <hyperlink ref="B190" r:id="rId224"/>
+    <hyperlink ref="B193" r:id="rId225"/>
+    <hyperlink ref="B197" r:id="rId226"/>
+    <hyperlink ref="B201" r:id="rId227"/>
+    <hyperlink ref="B207" r:id="rId228"/>
+    <hyperlink ref="B208" r:id="rId229"/>
+    <hyperlink ref="B219" r:id="rId230"/>
+    <hyperlink ref="B220" r:id="rId231"/>
+    <hyperlink ref="B227" r:id="rId232"/>
+    <hyperlink ref="B229" r:id="rId233"/>
+    <hyperlink ref="B231" r:id="rId234"/>
+    <hyperlink ref="B233" r:id="rId235"/>
+    <hyperlink ref="B236" r:id="rId236"/>
+    <hyperlink ref="B237" r:id="rId237"/>
+    <hyperlink ref="B240" r:id="rId238"/>
+    <hyperlink ref="B241" r:id="rId239"/>
+    <hyperlink ref="B246" r:id="rId240"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId169"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId241"/>
+  <tableParts count="1">
+    <tablePart r:id="rId242"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1052">
   <si>
     <t>name</t>
   </si>
@@ -2805,9 +2805,6 @@
     <t>Rb, K or Rb+K</t>
   </si>
   <si>
-    <t>Why do they hide which atoms they have so hard?</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -2820,24 +2817,15 @@
     <t>Li(molecules), CaF, YbF, He?</t>
   </si>
   <si>
-    <t>I think they use Li to cool other things, not sure.</t>
-  </si>
-  <si>
     <t>Webpage redirects to School Of Chemistry And Chemical Engineering (15.02.2018).</t>
   </si>
   <si>
     <t>K, Rb, Cs, Ca</t>
   </si>
   <si>
-    <t>They may have some other atoms, too many atoms to find them all on the webpage.</t>
-  </si>
-  <si>
     <t>Rb, CsYb, Ca, RbCs, Sr</t>
   </si>
   <si>
-    <t>Only 5 google results for all atoms together.</t>
-  </si>
-  <si>
     <t>LiK, Rb</t>
   </si>
   <si>
@@ -2847,9 +2835,6 @@
     <t>He</t>
   </si>
   <si>
-    <t>The first theoritician I found for which I could determine which atoms.</t>
-  </si>
-  <si>
     <t>Webpage doesn't work (16.02.2018).</t>
   </si>
   <si>
@@ -2865,9 +2850,6 @@
     <t>Er</t>
   </si>
   <si>
-    <t>A rare example of a group that doesn't hide which atoms they have.</t>
-  </si>
-  <si>
     <t>RbCs, Cs, LiK, KCs, DyK</t>
   </si>
   <si>
@@ -3193,6 +3175,9 @@
   </si>
   <si>
     <t>Li, Yb</t>
+  </si>
+  <si>
+    <t>They may have some other atoms.</t>
   </si>
 </sst>
 </file>
@@ -3776,7 +3761,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3792,11 +3780,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3804,12 +3788,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3832,7 +3810,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L248" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L248" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:L248"/>
   <sortState ref="A4:L246">
     <sortCondition ref="F1:F250"/>
@@ -3846,10 +3824,10 @@
     <tableColumn id="6" name="lat"/>
     <tableColumn id="7" name="long"/>
     <tableColumn id="8" name="exp_theor"/>
-    <tableColumn id="9" name="fields" dataDxfId="5"/>
+    <tableColumn id="9" name="fields" dataDxfId="3"/>
     <tableColumn id="10" name="people" dataDxfId="2"/>
-    <tableColumn id="11" name="atom" dataDxfId="0"/>
-    <tableColumn id="12" name="comment" dataDxfId="1"/>
+    <tableColumn id="11" name="atom" dataDxfId="1"/>
+    <tableColumn id="12" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4120,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,7 +4182,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>923</v>
@@ -4236,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -4265,9 +4243,7 @@
       <c r="K4" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>937</v>
-      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4292,10 +4268,10 @@
         <v>28</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,7 +4303,7 @@
         <v>38</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4383,10 +4359,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,7 +4391,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -4445,10 +4421,10 @@
         <v>56</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,10 +4450,10 @@
         <v>22</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4533,7 +4509,7 @@
         <v>636</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -4566,7 +4542,7 @@
         <v>924</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4625,7 +4601,7 @@
         <v>80</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -4682,10 +4658,10 @@
         <v>89</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4711,10 +4687,10 @@
         <v>22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4743,10 +4719,10 @@
         <v>94</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4772,7 +4748,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -4834,10 +4810,10 @@
         <v>106</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4863,10 +4839,10 @@
         <v>28</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4892,10 +4868,10 @@
         <v>16</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,10 +4900,10 @@
         <v>56</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4959,10 +4935,10 @@
         <v>117</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5023,7 +4999,7 @@
         <v>124</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -5053,7 +5029,7 @@
         <v>128</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -5083,7 +5059,7 @@
         <v>133</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -5116,7 +5092,7 @@
         <v>139</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L32" s="1"/>
     </row>
@@ -5146,10 +5122,10 @@
         <v>644</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5211,10 +5187,10 @@
         <v>286</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5246,10 +5222,10 @@
         <v>157</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,7 +5257,7 @@
         <v>161</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L37" s="1"/>
     </row>
@@ -5311,10 +5287,10 @@
         <v>56</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5340,10 +5316,10 @@
         <v>16</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5402,10 +5378,10 @@
         <v>528</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5434,10 +5410,10 @@
         <v>417</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5466,10 +5442,10 @@
         <v>56</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5495,7 +5471,7 @@
         <v>28</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="L44" s="1"/>
     </row>
@@ -5528,10 +5504,10 @@
         <v>730</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5557,10 +5533,10 @@
         <v>16</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5586,7 +5562,7 @@
         <v>22</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L47" s="1"/>
     </row>
@@ -5613,7 +5589,7 @@
         <v>28</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L48" s="1"/>
     </row>
@@ -5643,7 +5619,7 @@
         <v>200</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>923</v>
@@ -5672,10 +5648,10 @@
         <v>28</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5701,7 +5677,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,10 +5706,10 @@
         <v>210</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5765,7 +5741,7 @@
         <v>215</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L53" s="1"/>
     </row>
@@ -5792,7 +5768,7 @@
         <v>28</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L54" s="1"/>
     </row>
@@ -5858,10 +5834,10 @@
         <v>228</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5887,7 +5863,7 @@
         <v>28</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="L57" s="1"/>
     </row>
@@ -5917,10 +5893,10 @@
         <v>236</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,7 +5925,7 @@
         <v>707</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L59" s="1"/>
     </row>
@@ -5976,10 +5952,10 @@
         <v>28</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6005,10 +5981,10 @@
         <v>22</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6037,10 +6013,10 @@
         <v>251</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,10 +6075,10 @@
         <v>258</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6131,10 +6107,10 @@
         <v>505</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6160,10 +6136,10 @@
         <v>28</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6189,7 +6165,7 @@
         <v>28</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="L67" s="1"/>
     </row>
@@ -6222,7 +6198,7 @@
         <v>272</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L68" s="1"/>
     </row>
@@ -6252,11 +6228,9 @@
         <v>277</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>947</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -6287,10 +6261,10 @@
         <v>282</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6319,10 +6293,10 @@
         <v>745</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6348,7 +6322,7 @@
         <v>22</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L72" s="1"/>
     </row>
@@ -6405,7 +6379,7 @@
         <v>28</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>921</v>
@@ -6467,7 +6441,7 @@
         <v>22</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L76" s="1"/>
     </row>
@@ -6524,10 +6498,10 @@
         <v>22</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6556,7 +6530,7 @@
         <v>309</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>923</v>
@@ -6588,10 +6562,10 @@
         <v>313</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6623,7 +6597,7 @@
         <v>318</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L81" s="1"/>
     </row>
@@ -6656,7 +6630,7 @@
         <v>324</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>915</v>
@@ -6691,10 +6665,10 @@
         <v>329</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6726,7 +6700,7 @@
         <v>334</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L84" s="1"/>
     </row>
@@ -6756,7 +6730,7 @@
         <v>703</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L85" s="1"/>
     </row>
@@ -6786,10 +6760,10 @@
         <v>340</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6917,10 +6891,10 @@
         <v>178</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6949,7 +6923,7 @@
         <v>614</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L91" s="1"/>
     </row>
@@ -6976,10 +6950,10 @@
         <v>28</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7011,10 +6985,10 @@
         <v>365</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7042,9 +7016,7 @@
       <c r="K94" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>927</v>
-      </c>
+      <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -7072,7 +7044,7 @@
         <v>143</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L95" s="1"/>
     </row>
@@ -7102,10 +7074,10 @@
         <v>375</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7134,10 +7106,10 @@
         <v>32</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7166,7 +7138,7 @@
         <v>75</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L98" s="1"/>
     </row>
@@ -7196,7 +7168,7 @@
         <v>97</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L99" s="1"/>
     </row>
@@ -7223,11 +7195,9 @@
         <v>28</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>932</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -7255,7 +7225,7 @@
         <v>196</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="L101" s="1"/>
     </row>
@@ -7282,7 +7252,7 @@
         <v>28</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="L102" s="1"/>
     </row>
@@ -7309,10 +7279,10 @@
         <v>22</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7341,7 +7311,7 @@
         <v>398</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>923</v>
@@ -7373,7 +7343,7 @@
         <v>203</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L105" s="1"/>
     </row>
@@ -7400,10 +7370,10 @@
         <v>22</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -7435,10 +7405,10 @@
         <v>406</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7434,7 @@
         <v>28</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="L108" s="1"/>
     </row>
@@ -7497,10 +7467,10 @@
         <v>414</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7526,7 +7496,7 @@
         <v>22</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L110" s="1"/>
     </row>
@@ -7559,7 +7529,7 @@
         <v>423</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="L111" s="1"/>
     </row>
@@ -7589,7 +7559,7 @@
         <v>427</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L112" s="1"/>
     </row>
@@ -7622,10 +7592,10 @@
         <v>431</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7657,10 +7627,10 @@
         <v>437</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7689,7 +7659,7 @@
         <v>441</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L115" s="1"/>
     </row>
@@ -7722,10 +7692,10 @@
         <v>446</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.25">
@@ -7754,7 +7724,7 @@
         <v>371</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L117" s="1"/>
     </row>
@@ -7784,10 +7754,10 @@
         <v>454</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7816,10 +7786,10 @@
         <v>391</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7848,11 +7818,9 @@
         <v>460</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>941</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -7880,7 +7848,7 @@
         <v>449</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L121" s="1"/>
     </row>
@@ -7913,10 +7881,10 @@
         <v>467</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7972,10 +7940,10 @@
         <v>508</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -8001,7 +7969,7 @@
         <v>28</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="L125" s="1"/>
     </row>
@@ -8031,7 +7999,7 @@
         <v>480</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L126" s="1"/>
     </row>
@@ -8058,7 +8026,7 @@
         <v>28</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L127" s="1"/>
     </row>
@@ -8088,10 +8056,10 @@
         <v>486</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -8120,10 +8088,10 @@
         <v>490</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8149,7 +8117,7 @@
         <v>28</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8178,10 +8146,10 @@
         <v>497</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8210,7 +8178,7 @@
         <v>564</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L132" s="1"/>
     </row>
@@ -8237,10 +8205,10 @@
         <v>28</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8269,7 +8237,7 @@
         <v>610</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L134" s="1"/>
     </row>
@@ -8299,7 +8267,7 @@
         <v>664</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L135" s="1"/>
     </row>
@@ -8332,7 +8300,7 @@
         <v>924</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8385,7 +8353,7 @@
         <v>28</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="L138" s="1"/>
     </row>
@@ -8418,7 +8386,7 @@
         <v>523</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L139" s="1"/>
     </row>
@@ -8448,10 +8416,10 @@
         <v>873</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8483,10 +8451,10 @@
         <v>533</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -8545,10 +8513,10 @@
         <v>541</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8577,7 +8545,7 @@
         <v>545</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L144" s="1"/>
     </row>
@@ -8610,10 +8578,10 @@
         <v>550</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8642,10 +8610,10 @@
         <v>554</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
@@ -8674,10 +8642,10 @@
         <v>559</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8703,7 +8671,7 @@
         <v>28</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="L148" s="1"/>
     </row>
@@ -8730,7 +8698,7 @@
         <v>28</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="L149" s="1"/>
     </row>
@@ -8760,7 +8728,7 @@
         <v>569</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L150" s="1"/>
     </row>
@@ -8790,10 +8758,10 @@
         <v>573</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8846,7 +8814,7 @@
         <v>28</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L153" s="1"/>
     </row>
@@ -8906,10 +8874,10 @@
         <v>586</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8938,10 +8906,10 @@
         <v>590</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8970,7 +8938,7 @@
         <v>594</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L157" s="1"/>
     </row>
@@ -9000,7 +8968,7 @@
         <v>597</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L158" s="5" t="s">
         <v>919</v>
@@ -9035,7 +9003,7 @@
         <v>602</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>922</v>
@@ -9070,7 +9038,7 @@
         <v>607</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="L160" s="1"/>
     </row>
@@ -9124,7 +9092,7 @@
         <v>28</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="L162" s="1"/>
     </row>
@@ -9157,10 +9125,10 @@
         <v>619</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9186,7 +9154,7 @@
         <v>28</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>921</v>
@@ -9218,10 +9186,10 @@
         <v>626</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9247,10 +9215,10 @@
         <v>28</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9279,10 +9247,10 @@
         <v>841</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9308,7 +9276,7 @@
         <v>28</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="L168" s="1"/>
     </row>
@@ -9341,7 +9309,7 @@
         <v>641</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="L169" s="1"/>
     </row>
@@ -9368,7 +9336,7 @@
         <v>28</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="L170" s="1"/>
     </row>
@@ -9401,7 +9369,7 @@
         <v>649</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L171" s="1"/>
     </row>
@@ -9434,10 +9402,10 @@
         <v>654</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9493,7 +9461,7 @@
         <v>661</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>921</v>
@@ -9558,10 +9526,10 @@
         <v>669</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>935</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -9590,10 +9558,10 @@
         <v>672</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9619,7 +9587,7 @@
         <v>22</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L178" s="1"/>
     </row>
@@ -9652,10 +9620,10 @@
         <v>223</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9681,7 +9649,7 @@
         <v>22</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L180" s="1"/>
     </row>
@@ -9711,7 +9679,7 @@
         <v>170</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="L181" s="1"/>
     </row>
@@ -9744,10 +9712,10 @@
         <v>690</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9776,10 +9744,10 @@
         <v>692</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,10 +9776,10 @@
         <v>696</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9837,7 +9805,7 @@
         <v>22</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L185" s="1"/>
     </row>
@@ -9867,7 +9835,7 @@
         <v>244</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L186" s="1"/>
     </row>
@@ -9897,10 +9865,10 @@
         <v>500</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9929,7 +9897,7 @@
         <v>711</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L188" s="1"/>
     </row>
@@ -9959,7 +9927,7 @@
         <v>294</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="L189" s="1"/>
     </row>
@@ -10019,10 +9987,10 @@
         <v>721</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10051,10 +10019,10 @@
         <v>725</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10080,7 +10048,7 @@
         <v>28</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="L193" s="1"/>
     </row>
@@ -10110,7 +10078,7 @@
         <v>734</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L194" s="1"/>
     </row>
@@ -10137,10 +10105,10 @@
         <v>28</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10169,10 +10137,10 @@
         <v>741</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10198,7 +10166,7 @@
         <v>28</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L197" s="1"/>
     </row>
@@ -10258,7 +10226,7 @@
         <v>22</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L199" s="1"/>
     </row>
@@ -10291,10 +10259,10 @@
         <v>756</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10320,7 +10288,7 @@
         <v>28</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="L201" s="1"/>
     </row>
@@ -10350,7 +10318,7 @@
         <v>762</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L202" s="1" t="s">
         <v>921</v>
@@ -10382,7 +10350,7 @@
         <v>766</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="L203" s="1"/>
     </row>
@@ -10412,7 +10380,7 @@
         <v>770</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="L204" s="1"/>
     </row>
@@ -10439,7 +10407,7 @@
         <v>22</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L205" s="1"/>
     </row>
@@ -10472,7 +10440,7 @@
         <v>779</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L206" s="1"/>
     </row>
@@ -10502,10 +10470,10 @@
         <v>240</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10531,7 +10499,7 @@
         <v>28</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="L208" s="1"/>
     </row>
@@ -10597,7 +10565,7 @@
         <v>926</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -10626,10 +10594,10 @@
         <v>794</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10658,7 +10626,7 @@
         <v>798</v>
       </c>
       <c r="K212" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L212" s="1"/>
     </row>
@@ -10691,7 +10659,7 @@
         <v>803</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L213" s="1"/>
     </row>
@@ -10721,10 +10689,10 @@
         <v>806</v>
       </c>
       <c r="K214" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -10753,10 +10721,10 @@
         <v>810</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10785,10 +10753,10 @@
         <v>813</v>
       </c>
       <c r="K216" s="6" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10841,7 +10809,7 @@
         <v>28</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="L218" s="1"/>
     </row>
@@ -10868,7 +10836,7 @@
         <v>28</v>
       </c>
       <c r="K219" s="6" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L219" s="1"/>
     </row>
@@ -10895,10 +10863,10 @@
         <v>28</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10930,7 +10898,7 @@
         <v>916</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10959,10 +10927,10 @@
         <v>832</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10991,7 +10959,7 @@
         <v>835</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="L223" s="1"/>
     </row>
@@ -11021,7 +10989,7 @@
         <v>838</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L224" s="1"/>
     </row>
@@ -11051,7 +11019,7 @@
         <v>685</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="L225" s="1"/>
     </row>
@@ -11078,7 +11046,7 @@
         <v>28</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="L226" s="1"/>
     </row>
@@ -11108,7 +11076,7 @@
         <v>84</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="L227" s="1"/>
     </row>
@@ -11138,10 +11106,10 @@
         <v>56</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11230,7 +11198,7 @@
         <v>187</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L231" s="1"/>
     </row>
@@ -11293,7 +11261,7 @@
         <v>473</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L233" s="1"/>
     </row>
@@ -11323,10 +11291,10 @@
         <v>865</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -11358,7 +11326,7 @@
         <v>870</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L235" s="1"/>
     </row>
@@ -11385,7 +11353,7 @@
         <v>28</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L236" s="1"/>
     </row>
@@ -11448,7 +11416,7 @@
         <v>881</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L238" s="1"/>
     </row>
@@ -11475,10 +11443,10 @@
         <v>22</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11507,7 +11475,7 @@
         <v>629</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L240" s="1"/>
     </row>
@@ -11534,7 +11502,7 @@
         <v>28</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="L241" s="1"/>
     </row>
@@ -11564,10 +11532,10 @@
         <v>893</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -11596,7 +11564,7 @@
         <v>897</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L243" s="1"/>
     </row>
@@ -11623,7 +11591,7 @@
         <v>28</v>
       </c>
       <c r="K244" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L244" s="1" t="s">
         <v>920</v>
@@ -11655,7 +11623,7 @@
         <v>903</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L245" s="1"/>
     </row>
@@ -11682,10 +11650,10 @@
         <v>28</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11711,10 +11679,10 @@
         <v>22</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -11740,26 +11708,26 @@
         <v>28</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>914</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H248">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
